--- a/1 - DOC/Gantt-prévisionnel.xlsx
+++ b/1 - DOC/Gantt-prévisionnel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMILLION\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMILLION\Desktop\GitTube\Projet.PHP.Objet\1 - DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -192,9 +192,6 @@
     <t>Diagramme de classes UML</t>
   </si>
   <si>
-    <t>Diagramme de Use Cases</t>
-  </si>
-  <si>
     <t>Manuel d'utilisation</t>
   </si>
   <si>
@@ -271,12 +268,15 @@
   </si>
   <si>
     <t>Cahier de recettes</t>
+  </si>
+  <si>
+    <t>Diagramme de Use Case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,6 +765,15 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,36 +822,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% accompli" xfId="16"/>
-    <cellStyle name="Activité" xfId="2"/>
-    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7"/>
-    <cellStyle name="En-têtes de période" xfId="3"/>
-    <cellStyle name="En-têtes de projet" xfId="4"/>
-    <cellStyle name="Étiquette" xfId="5"/>
-    <cellStyle name="Légende de ce qui a été accompli" xfId="15"/>
-    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17"/>
-    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18"/>
-    <cellStyle name="Légende du plan" xfId="14"/>
+    <cellStyle name="% accompli" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Activité" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Pourcentage accompli" xfId="6"/>
+    <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Texte explicatif" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Titre" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Valeur de la période" xfId="13"/>
+    <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1415,12 +1415,12 @@
       <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="46" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="5">
@@ -1428,66 +1428,66 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="42"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="8"/>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="45"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="48"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="45"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="48"/>
       <c r="AH2" s="10"/>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
     </row>
     <row r="3" spans="2:67" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="42" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1514,12 +1514,12 @@
       <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="15">
         <v>1</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="AP6" s="3"/>
     </row>
     <row r="7" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="23"/>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="12" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C12" s="23">
         <v>2</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="13" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="23">
         <v>6</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="14" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="23">
         <v>6</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="15" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="23">
         <v>8</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="16" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="23">
         <v>8</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="17" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23">
         <v>8</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="18" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="23">
         <v>8</v>
@@ -2287,14 +2287,14 @@
     </row>
     <row r="19" spans="1:68" s="26" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -2317,8 +2317,8 @@
       <c r="AA19" s="25"/>
     </row>
     <row r="20" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>33</v>
+      <c r="B20" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="23">
         <v>8</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="21" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="23">
         <v>8</v>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="22" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="23">
         <v>8</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="23" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="23">
         <v>8</v>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="24" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="23">
         <v>8</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="25" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="23">
         <v>11</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="26" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="23">
         <v>11</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="27" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="23">
         <v>11</v>
@@ -2701,8 +2701,8 @@
       <c r="BP27" s="14"/>
     </row>
     <row r="28" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
-        <v>40</v>
+      <c r="B28" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="23">
         <v>15</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="29" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="23">
         <v>15</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="30" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="23">
         <v>15</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="31" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="23">
         <v>18</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="32" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="23">
         <v>18</v>
@@ -2941,8 +2941,8 @@
       <c r="BP32" s="14"/>
     </row>
     <row r="33" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47" t="s">
-        <v>46</v>
+      <c r="B33" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="23">
         <v>22</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="34" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="23">
         <v>22</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="35" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="23">
         <v>23</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="36" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="23">
         <v>24</v>
@@ -3133,8 +3133,8 @@
       <c r="BP36" s="14"/>
     </row>
     <row r="37" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="47" t="s">
-        <v>51</v>
+      <c r="B37" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="23">
         <v>25</v>
@@ -3181,8 +3181,8 @@
       <c r="BP37" s="16"/>
     </row>
     <row r="38" spans="2:68" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
-        <v>50</v>
+      <c r="B38" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="3">
         <v>25</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="39" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="23">
         <v>27</v>
@@ -3241,14 +3241,14 @@
       </c>
     </row>
     <row r="41" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
       <c r="AO41" s="14"/>
       <c r="AP41" s="14"/>
       <c r="AQ41" s="14"/>
@@ -4061,24 +4061,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,+$A$2:$H$2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/1 - DOC/Gantt-prévisionnel.xlsx
+++ b/1 - DOC/Gantt-prévisionnel.xlsx
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -384,6 +384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
@@ -424,25 +432,16 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="7"/>
-      <name val="Corbel"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -456,6 +455,21 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <name val="Calibri"/>
@@ -464,19 +478,13 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
+      <color theme="7"/>
+      <name val="Corbel"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +688,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,28 +704,64 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -720,107 +770,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1354,17 +1377,17 @@
   <dimension ref="A1:BP188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="BW5" sqref="BW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="20" customWidth="1"/>
-    <col min="3" max="5" width="11.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="4.25" style="17" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="45" customWidth="1"/>
+    <col min="3" max="5" width="11.625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="34" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="4.25" style="34" customWidth="1"/>
     <col min="28" max="44" width="4.25" style="4" customWidth="1"/>
     <col min="45" max="16384" width="2.75" style="4"/>
   </cols>
@@ -1415,261 +1438,261 @@
       <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="43" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+    </row>
+    <row r="3" spans="2:67" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2</v>
+      </c>
+      <c r="J4" s="29">
+        <v>3</v>
+      </c>
+      <c r="K4" s="29">
+        <v>4</v>
+      </c>
+      <c r="L4" s="29">
+        <v>5</v>
+      </c>
+      <c r="M4" s="29">
+        <v>6</v>
+      </c>
+      <c r="N4" s="29">
         <v>7</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="43" t="s">
+      <c r="O4" s="29">
         <v>8</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="47" t="s">
+      <c r="P4" s="29">
         <v>9</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Q4" s="29">
         <v>10</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="35" t="s">
+      <c r="R4" s="29">
         <v>11</v>
       </c>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-    </row>
-    <row r="3" spans="2:67" s="14" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="S4" s="29">
+        <v>12</v>
+      </c>
+      <c r="T4" s="29">
+        <v>13</v>
+      </c>
+      <c r="U4" s="29">
+        <v>14</v>
+      </c>
+      <c r="V4" s="29">
+        <v>15</v>
+      </c>
+      <c r="W4" s="29">
+        <v>16</v>
+      </c>
+      <c r="X4" s="29">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="29">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="29">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="29">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="29">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="29">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="29">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="29">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="29">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="29">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="29">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="29">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="29">
+        <v>33</v>
+      </c>
+      <c r="AO4" s="29">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="29">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="29">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="30"/>
+      <c r="BB4" s="30"/>
+      <c r="BC4" s="30"/>
+      <c r="BD4" s="30"/>
+      <c r="BE4" s="30"/>
+      <c r="BF4" s="30"/>
+      <c r="BG4" s="30"/>
+      <c r="BH4" s="30"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="30"/>
+      <c r="BK4" s="30"/>
+      <c r="BL4" s="30"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+    </row>
+    <row r="5" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="15">
+      <c r="D5" s="32">
+        <v>7</v>
+      </c>
+      <c r="E5" s="32">
         <v>1</v>
       </c>
-      <c r="I4" s="15">
-        <v>2</v>
-      </c>
-      <c r="J4" s="15">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15">
-        <v>4</v>
-      </c>
-      <c r="L4" s="15">
-        <v>5</v>
-      </c>
-      <c r="M4" s="15">
-        <v>6</v>
-      </c>
-      <c r="N4" s="15">
+      <c r="F5" s="32">
         <v>7</v>
       </c>
-      <c r="O4" s="15">
-        <v>8</v>
-      </c>
-      <c r="P4" s="15">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>10</v>
-      </c>
-      <c r="R4" s="15">
-        <v>11</v>
-      </c>
-      <c r="S4" s="15">
-        <v>12</v>
-      </c>
-      <c r="T4" s="15">
-        <v>13</v>
-      </c>
-      <c r="U4" s="15">
-        <v>14</v>
-      </c>
-      <c r="V4" s="15">
-        <v>15</v>
-      </c>
-      <c r="W4" s="15">
-        <v>16</v>
-      </c>
-      <c r="X4" s="15">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="15">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="15">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="15">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="15">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="15">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="15">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="15">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="15">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="15">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="15">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="15">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="16"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
-    </row>
-    <row r="5" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23">
-        <v>7</v>
-      </c>
-      <c r="E5" s="23">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23">
-        <v>7</v>
-      </c>
-      <c r="G5" s="24">
+      <c r="G5" s="33">
         <v>1</v>
       </c>
       <c r="P5" s="3"/>
@@ -1697,26 +1720,27 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
+      <c r="AO5" s="47"/>
       <c r="AP5" s="3"/>
+      <c r="AQ5" s="51"/>
     </row>
     <row r="6" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="32">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="32">
         <v>3</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="32">
         <v>3</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="33">
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
@@ -1744,18 +1768,19 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
+      <c r="AO6" s="47"/>
       <c r="AP6" s="3"/>
+      <c r="AQ6" s="51"/>
     </row>
     <row r="7" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1781,26 +1806,27 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
+      <c r="AO7" s="47"/>
       <c r="AP7" s="3"/>
+      <c r="AQ7" s="51"/>
     </row>
     <row r="8" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="32">
         <v>2</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="32">
         <v>2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="32">
         <v>2</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="32">
         <v>2</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="33">
         <v>1</v>
       </c>
       <c r="P8" s="3"/>
@@ -1828,26 +1854,27 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
+      <c r="AO8" s="47"/>
       <c r="AP8" s="3"/>
+      <c r="AQ8" s="51"/>
     </row>
     <row r="9" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="32">
         <v>2</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="32">
         <v>2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="33">
         <v>1</v>
       </c>
       <c r="P9" s="3"/>
@@ -1875,26 +1902,27 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+      <c r="AO9" s="47"/>
       <c r="AP9" s="3"/>
+      <c r="AQ9" s="51"/>
     </row>
     <row r="10" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="32">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="32">
         <v>2</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="32">
         <v>2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="33">
         <v>1</v>
       </c>
       <c r="P10" s="3"/>
@@ -1922,27 +1950,24 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
+      <c r="AO10" s="47"/>
       <c r="AP10" s="3"/>
+      <c r="AQ10" s="51"/>
     </row>
     <row r="11" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="32">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="32">
         <v>6</v>
       </c>
-      <c r="E11" s="23">
-        <v>2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>6</v>
-      </c>
-      <c r="G11" s="24">
-        <v>1</v>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33">
+        <v>0</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -1969,26 +1994,27 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
+      <c r="AO11" s="47"/>
       <c r="AP11" s="3"/>
+      <c r="AQ11" s="51"/>
     </row>
     <row r="12" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="32">
         <v>2</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="32">
         <v>6</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="32">
         <v>6</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="33">
         <v>1</v>
       </c>
       <c r="P12" s="3"/>
@@ -2016,26 +2042,27 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
+      <c r="AO12" s="47"/>
       <c r="AP12" s="3"/>
+      <c r="AQ12" s="51"/>
     </row>
     <row r="13" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="32">
         <v>6</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="32">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="32">
         <v>6</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="32">
         <v>1</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="33">
         <v>1</v>
       </c>
       <c r="P13" s="3"/>
@@ -2063,26 +2090,27 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
+      <c r="AO13" s="47"/>
       <c r="AP13" s="3"/>
+      <c r="AQ13" s="51"/>
     </row>
     <row r="14" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="32">
         <v>6</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="32">
         <v>1</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="32">
         <v>6</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="32">
         <v>1</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="33">
         <v>1</v>
       </c>
       <c r="P14" s="3"/>
@@ -2110,22 +2138,23 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
+      <c r="AO14" s="47"/>
       <c r="AP14" s="3"/>
+      <c r="AQ14" s="51"/>
     </row>
     <row r="15" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="32">
         <v>8</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="32">
         <v>28</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33">
         <v>0</v>
       </c>
       <c r="P15" s="3"/>
@@ -2153,22 +2182,23 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
+      <c r="AO15" s="47"/>
       <c r="AP15" s="3"/>
+      <c r="AQ15" s="51"/>
     </row>
     <row r="16" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="32">
         <v>8</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="32">
         <v>28</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24">
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33">
         <v>0</v>
       </c>
       <c r="P16" s="3"/>
@@ -2196,22 +2226,23 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
+      <c r="AO16" s="47"/>
       <c r="AP16" s="3"/>
+      <c r="AQ16" s="51"/>
     </row>
     <row r="17" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="32">
         <v>8</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="32">
         <v>28</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24">
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33">
         <v>0</v>
       </c>
       <c r="P17" s="3"/>
@@ -2239,22 +2270,23 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
+      <c r="AO17" s="47"/>
       <c r="AP17" s="3"/>
+      <c r="AQ17" s="51"/>
     </row>
     <row r="18" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="32">
         <v>8</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="32">
         <v>28</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24">
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33">
         <v>0</v>
       </c>
       <c r="P18" s="3"/>
@@ -2282,906 +2314,909 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
+      <c r="AO18" s="47"/>
       <c r="AP18" s="3"/>
-    </row>
-    <row r="19" spans="1:68" s="26" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="34" t="s">
+      <c r="AQ18" s="51"/>
+    </row>
+    <row r="19" spans="1:68" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AO19" s="48"/>
+      <c r="AQ19" s="48"/>
     </row>
     <row r="20" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="32">
         <v>8</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="32">
         <v>7</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="24">
+      <c r="E20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="33">
         <v>0</v>
       </c>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
-      <c r="BM20" s="14"/>
-      <c r="BN20" s="14"/>
-      <c r="BO20" s="14"/>
-      <c r="BP20" s="14"/>
+      <c r="AO20" s="49"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="49"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+      <c r="BC20" s="26"/>
+      <c r="BD20" s="26"/>
+      <c r="BE20" s="26"/>
+      <c r="BF20" s="26"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="26"/>
+      <c r="BM20" s="26"/>
+      <c r="BN20" s="26"/>
+      <c r="BO20" s="26"/>
+      <c r="BP20" s="26"/>
     </row>
     <row r="21" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="32">
         <v>8</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="32">
         <v>3</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="24">
+      <c r="E21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="33">
         <v>0</v>
       </c>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
-      <c r="BM21" s="14"/>
-      <c r="BN21" s="14"/>
-      <c r="BO21" s="14"/>
-      <c r="BP21" s="14"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="26"/>
+      <c r="BM21" s="26"/>
+      <c r="BN21" s="26"/>
+      <c r="BO21" s="26"/>
+      <c r="BP21" s="26"/>
     </row>
     <row r="22" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="32">
         <v>8</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="32">
         <v>3</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="E22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="33">
         <v>0</v>
       </c>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="14"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="14"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
-      <c r="BM22" s="14"/>
-      <c r="BN22" s="14"/>
-      <c r="BO22" s="14"/>
-      <c r="BP22" s="14"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="26"/>
+      <c r="BP22" s="26"/>
     </row>
     <row r="23" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="32">
         <v>8</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="32">
         <v>3</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="24">
+      <c r="E23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="33">
         <v>0</v>
       </c>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
-      <c r="BM23" s="14"/>
-      <c r="BN23" s="14"/>
-      <c r="BO23" s="14"/>
-      <c r="BP23" s="14"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="26"/>
     </row>
     <row r="24" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="32">
         <v>8</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="32">
         <v>3</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="24">
+      <c r="E24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="33">
         <v>0</v>
       </c>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
-      <c r="BM24" s="14"/>
-      <c r="BN24" s="14"/>
-      <c r="BO24" s="14"/>
-      <c r="BP24" s="14"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
     </row>
     <row r="25" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="32">
         <v>11</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="32">
         <v>4</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="E25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="33">
         <v>0</v>
       </c>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
-      <c r="BM25" s="14"/>
-      <c r="BN25" s="14"/>
-      <c r="BO25" s="14"/>
-      <c r="BP25" s="14"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
     </row>
     <row r="26" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="32">
         <v>11</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="32">
         <v>4</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="E26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="33">
         <v>0</v>
       </c>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-      <c r="BM26" s="14"/>
-      <c r="BN26" s="14"/>
-      <c r="BO26" s="14"/>
-      <c r="BP26" s="14"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="26"/>
+      <c r="BP26" s="26"/>
     </row>
     <row r="27" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="32">
         <v>11</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="32">
         <v>4</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="24">
+      <c r="E27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="33">
         <v>0</v>
       </c>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-      <c r="BC27" s="14"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="14"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="14"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="14"/>
-      <c r="BK27" s="14"/>
-      <c r="BL27" s="14"/>
-      <c r="BM27" s="14"/>
-      <c r="BN27" s="14"/>
-      <c r="BO27" s="14"/>
-      <c r="BP27" s="14"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="26"/>
+      <c r="BP27" s="26"/>
     </row>
     <row r="28" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="32">
         <v>15</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="32">
         <v>7</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="24">
+      <c r="E28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="33">
         <v>0</v>
       </c>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
-      <c r="BC28" s="14"/>
-      <c r="BD28" s="14"/>
-      <c r="BE28" s="14"/>
-      <c r="BF28" s="14"/>
-      <c r="BG28" s="14"/>
-      <c r="BH28" s="14"/>
-      <c r="BI28" s="14"/>
-      <c r="BJ28" s="14"/>
-      <c r="BK28" s="14"/>
-      <c r="BL28" s="14"/>
-      <c r="BM28" s="14"/>
-      <c r="BN28" s="14"/>
-      <c r="BO28" s="14"/>
-      <c r="BP28" s="14"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28" s="26"/>
+      <c r="BP28" s="26"/>
     </row>
     <row r="29" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="32">
         <v>15</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="32">
         <v>3</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="E29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="33">
         <v>0</v>
       </c>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="14"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="14"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="14"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="14"/>
-      <c r="BM29" s="14"/>
-      <c r="BN29" s="14"/>
-      <c r="BO29" s="14"/>
-      <c r="BP29" s="14"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
     </row>
     <row r="30" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="32">
         <v>15</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="32">
         <v>3</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="24">
+      <c r="E30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="33">
         <v>0</v>
       </c>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-      <c r="BM30" s="14"/>
-      <c r="BN30" s="14"/>
-      <c r="BO30" s="14"/>
-      <c r="BP30" s="14"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="26"/>
+      <c r="BG30" s="26"/>
+      <c r="BH30" s="26"/>
+      <c r="BI30" s="26"/>
+      <c r="BJ30" s="26"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
+      <c r="BM30" s="26"/>
+      <c r="BN30" s="26"/>
+      <c r="BO30" s="26"/>
+      <c r="BP30" s="26"/>
     </row>
     <row r="31" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="32">
         <v>18</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="32">
         <v>4</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="24">
+      <c r="E31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="33">
         <v>0</v>
       </c>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="14"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="14"/>
-      <c r="BJ31" s="14"/>
-      <c r="BK31" s="14"/>
-      <c r="BL31" s="14"/>
-      <c r="BM31" s="14"/>
-      <c r="BN31" s="14"/>
-      <c r="BO31" s="14"/>
-      <c r="BP31" s="14"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="26"/>
+      <c r="BG31" s="26"/>
+      <c r="BH31" s="26"/>
+      <c r="BI31" s="26"/>
+      <c r="BJ31" s="26"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
+      <c r="BM31" s="26"/>
+      <c r="BN31" s="26"/>
+      <c r="BO31" s="26"/>
+      <c r="BP31" s="26"/>
     </row>
     <row r="32" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="32">
         <v>18</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="32">
         <v>4</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="24">
+      <c r="E32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="33">
         <v>0</v>
       </c>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="14"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="14"/>
-      <c r="BC32" s="14"/>
-      <c r="BD32" s="14"/>
-      <c r="BE32" s="14"/>
-      <c r="BF32" s="14"/>
-      <c r="BG32" s="14"/>
-      <c r="BH32" s="14"/>
-      <c r="BI32" s="14"/>
-      <c r="BJ32" s="14"/>
-      <c r="BK32" s="14"/>
-      <c r="BL32" s="14"/>
-      <c r="BM32" s="14"/>
-      <c r="BN32" s="14"/>
-      <c r="BO32" s="14"/>
-      <c r="BP32" s="14"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="26"/>
+      <c r="BG32" s="26"/>
+      <c r="BH32" s="26"/>
+      <c r="BI32" s="26"/>
+      <c r="BJ32" s="26"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="26"/>
+      <c r="BM32" s="26"/>
+      <c r="BN32" s="26"/>
+      <c r="BO32" s="26"/>
+      <c r="BP32" s="26"/>
     </row>
     <row r="33" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="32">
         <v>22</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="32">
         <v>3</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="24">
+      <c r="E33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="33">
         <v>0</v>
       </c>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="14"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="14"/>
-      <c r="BI33" s="14"/>
-      <c r="BJ33" s="14"/>
-      <c r="BK33" s="14"/>
-      <c r="BL33" s="14"/>
-      <c r="BM33" s="14"/>
-      <c r="BN33" s="14"/>
-      <c r="BO33" s="14"/>
-      <c r="BP33" s="14"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="26"/>
+      <c r="BG33" s="26"/>
+      <c r="BH33" s="26"/>
+      <c r="BI33" s="26"/>
+      <c r="BJ33" s="26"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="26"/>
+      <c r="BP33" s="26"/>
     </row>
     <row r="34" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="32">
         <v>22</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="32">
         <v>1</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="24">
+      <c r="E34" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="33">
         <v>0</v>
       </c>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="14"/>
-      <c r="BP34" s="14"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26"/>
+      <c r="BO34" s="26"/>
+      <c r="BP34" s="26"/>
     </row>
     <row r="35" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="32">
         <v>23</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="32">
         <v>1</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="24">
+      <c r="E35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="33">
         <v>0</v>
       </c>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="14"/>
-      <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-      <c r="BC35" s="14"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
-      <c r="BI35" s="14"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="14"/>
-      <c r="BM35" s="14"/>
-      <c r="BN35" s="14"/>
-      <c r="BO35" s="14"/>
-      <c r="BP35" s="14"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+      <c r="BA35" s="26"/>
+      <c r="BB35" s="26"/>
+      <c r="BC35" s="26"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="26"/>
+      <c r="BF35" s="26"/>
+      <c r="BG35" s="26"/>
+      <c r="BH35" s="26"/>
+      <c r="BI35" s="26"/>
+      <c r="BJ35" s="26"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="26"/>
+      <c r="BM35" s="26"/>
+      <c r="BN35" s="26"/>
+      <c r="BO35" s="26"/>
+      <c r="BP35" s="26"/>
     </row>
     <row r="36" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="32">
         <v>24</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="32">
         <v>1</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="24">
+      <c r="E36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="33">
         <v>0</v>
       </c>
-      <c r="AO36" s="14"/>
-      <c r="AP36" s="14"/>
-      <c r="AQ36" s="14"/>
-      <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="14"/>
-      <c r="AV36" s="14"/>
-      <c r="AW36" s="14"/>
-      <c r="AX36" s="14"/>
-      <c r="AY36" s="14"/>
-      <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="14"/>
-      <c r="BC36" s="14"/>
-      <c r="BD36" s="14"/>
-      <c r="BE36" s="14"/>
-      <c r="BF36" s="14"/>
-      <c r="BG36" s="14"/>
-      <c r="BH36" s="14"/>
-      <c r="BI36" s="14"/>
-      <c r="BJ36" s="14"/>
-      <c r="BK36" s="14"/>
-      <c r="BL36" s="14"/>
-      <c r="BM36" s="14"/>
-      <c r="BN36" s="14"/>
-      <c r="BO36" s="14"/>
-      <c r="BP36" s="14"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="49"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="26"/>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26"/>
+      <c r="BG36" s="26"/>
+      <c r="BH36" s="26"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="26"/>
+      <c r="BL36" s="26"/>
+      <c r="BM36" s="26"/>
+      <c r="BN36" s="26"/>
+      <c r="BO36" s="26"/>
+      <c r="BP36" s="26"/>
     </row>
     <row r="37" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="32">
         <v>25</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="32">
         <v>3</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="24">
+      <c r="E37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="33">
         <v>0</v>
       </c>
-      <c r="AO37" s="16"/>
-      <c r="AP37" s="16"/>
-      <c r="AQ37" s="16"/>
-      <c r="AR37" s="16"/>
-      <c r="AS37" s="16"/>
-      <c r="AT37" s="16"/>
-      <c r="AU37" s="16"/>
-      <c r="AV37" s="16"/>
-      <c r="AW37" s="16"/>
-      <c r="AX37" s="16"/>
-      <c r="AY37" s="16"/>
-      <c r="AZ37" s="16"/>
-      <c r="BA37" s="16"/>
-      <c r="BB37" s="16"/>
-      <c r="BC37" s="16"/>
-      <c r="BD37" s="16"/>
-      <c r="BE37" s="16"/>
-      <c r="BF37" s="16"/>
-      <c r="BG37" s="16"/>
-      <c r="BH37" s="16"/>
-      <c r="BI37" s="16"/>
-      <c r="BJ37" s="16"/>
-      <c r="BK37" s="16"/>
-      <c r="BL37" s="16"/>
-      <c r="BM37" s="16"/>
-      <c r="BN37" s="16"/>
-      <c r="BO37" s="16"/>
-      <c r="BP37" s="16"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="30"/>
+      <c r="AQ37" s="50"/>
+      <c r="AR37" s="30"/>
+      <c r="AS37" s="30"/>
+      <c r="AT37" s="30"/>
+      <c r="AU37" s="30"/>
+      <c r="AV37" s="30"/>
+      <c r="AW37" s="30"/>
+      <c r="AX37" s="30"/>
+      <c r="AY37" s="30"/>
+      <c r="AZ37" s="30"/>
+      <c r="BA37" s="30"/>
+      <c r="BB37" s="30"/>
+      <c r="BC37" s="30"/>
+      <c r="BD37" s="30"/>
+      <c r="BE37" s="30"/>
+      <c r="BF37" s="30"/>
+      <c r="BG37" s="30"/>
+      <c r="BH37" s="30"/>
+      <c r="BI37" s="30"/>
+      <c r="BJ37" s="30"/>
+      <c r="BK37" s="30"/>
+      <c r="BL37" s="30"/>
+      <c r="BM37" s="30"/>
+      <c r="BN37" s="30"/>
+      <c r="BO37" s="30"/>
+      <c r="BP37" s="30"/>
     </row>
     <row r="38" spans="2:68" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="41" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="3">
@@ -3190,38 +3225,42 @@
       <c r="D38" s="3">
         <v>2</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="24">
+      <c r="E38" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="33">
         <v>0</v>
       </c>
+      <c r="AO38" s="51"/>
+      <c r="AQ38" s="51"/>
     </row>
     <row r="39" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="32">
         <v>27</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="32">
         <v>1</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="24">
+      <c r="E39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="33">
         <v>0</v>
       </c>
+      <c r="AO39" s="51"/>
+      <c r="AQ39" s="51"/>
     </row>
     <row r="40" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="3">
@@ -3230,752 +3269,757 @@
       <c r="D40" s="3">
         <v>30</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="24">
+      <c r="E40" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="33">
         <v>0</v>
       </c>
+      <c r="AO40" s="51"/>
+      <c r="AQ40" s="51"/>
     </row>
     <row r="41" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="14"/>
-      <c r="AW41" s="14"/>
-      <c r="AX41" s="14"/>
-      <c r="AY41" s="14"/>
-      <c r="AZ41" s="14"/>
-      <c r="BA41" s="14"/>
-      <c r="BB41" s="14"/>
-      <c r="BC41" s="14"/>
-      <c r="BD41" s="14"/>
-      <c r="BE41" s="14"/>
-      <c r="BF41" s="14"/>
-      <c r="BG41" s="14"/>
-      <c r="BH41" s="14"/>
-      <c r="BI41" s="14"/>
-      <c r="BJ41" s="14"/>
-      <c r="BK41" s="14"/>
-      <c r="BL41" s="14"/>
-      <c r="BM41" s="14"/>
-      <c r="BN41" s="14"/>
-      <c r="BO41" s="14"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="49"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
+      <c r="BI41" s="26"/>
+      <c r="BJ41" s="26"/>
+      <c r="BK41" s="26"/>
+      <c r="BL41" s="26"/>
+      <c r="BM41" s="26"/>
+      <c r="BN41" s="26"/>
+      <c r="BO41" s="26"/>
     </row>
     <row r="42" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="32">
         <v>28</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="32">
         <v>7</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="24">
+      <c r="E42" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="33">
         <v>0</v>
       </c>
-      <c r="AP42" s="16"/>
-      <c r="AQ42" s="16"/>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="16"/>
-      <c r="AT42" s="16"/>
-      <c r="AU42" s="16"/>
-      <c r="AV42" s="16"/>
-      <c r="AW42" s="16"/>
-      <c r="AX42" s="16"/>
-      <c r="AY42" s="16"/>
-      <c r="AZ42" s="16"/>
-      <c r="BA42" s="16"/>
-      <c r="BB42" s="16"/>
-      <c r="BC42" s="16"/>
-      <c r="BD42" s="16"/>
-      <c r="BE42" s="16"/>
-      <c r="BF42" s="16"/>
-      <c r="BG42" s="16"/>
-      <c r="BH42" s="16"/>
-      <c r="BI42" s="16"/>
-      <c r="BJ42" s="16"/>
-      <c r="BK42" s="16"/>
-      <c r="BL42" s="16"/>
-      <c r="BM42" s="16"/>
-      <c r="BN42" s="16"/>
-      <c r="BO42" s="16"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+      <c r="AY42" s="30"/>
+      <c r="AZ42" s="30"/>
+      <c r="BA42" s="30"/>
+      <c r="BB42" s="30"/>
+      <c r="BC42" s="30"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="30"/>
+      <c r="BI42" s="30"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
+      <c r="BM42" s="30"/>
+      <c r="BN42" s="30"/>
+      <c r="BO42" s="30"/>
     </row>
     <row r="43" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="32">
         <v>28</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="32">
         <v>7</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="24">
+      <c r="E43" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="33">
         <v>0</v>
       </c>
+      <c r="AO43" s="51"/>
+      <c r="AQ43" s="51"/>
     </row>
     <row r="44" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="14"/>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
-      <c r="BA44" s="14"/>
-      <c r="BB44" s="14"/>
-      <c r="BC44" s="14"/>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="14"/>
-      <c r="BF44" s="14"/>
-      <c r="BG44" s="14"/>
-      <c r="BH44" s="14"/>
-      <c r="BI44" s="14"/>
-      <c r="BJ44" s="14"/>
-      <c r="BK44" s="14"/>
-      <c r="BL44" s="14"/>
-      <c r="BM44" s="14"/>
-      <c r="BN44" s="14"/>
-      <c r="BO44" s="14"/>
+      <c r="B44" s="43"/>
+      <c r="G44" s="44"/>
+      <c r="AO44" s="26"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="26"/>
+      <c r="AS44" s="26"/>
+      <c r="AT44" s="26"/>
+      <c r="AU44" s="26"/>
+      <c r="AV44" s="26"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="26"/>
+      <c r="AZ44" s="26"/>
+      <c r="BA44" s="26"/>
+      <c r="BB44" s="26"/>
+      <c r="BC44" s="26"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="26"/>
+      <c r="BF44" s="26"/>
+      <c r="BG44" s="26"/>
+      <c r="BH44" s="26"/>
+      <c r="BI44" s="26"/>
+      <c r="BJ44" s="26"/>
+      <c r="BK44" s="26"/>
+      <c r="BL44" s="26"/>
+      <c r="BM44" s="26"/>
+      <c r="BN44" s="26"/>
+      <c r="BO44" s="26"/>
     </row>
     <row r="45" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="AO45" s="16"/>
-      <c r="AP45" s="16"/>
-      <c r="AQ45" s="16"/>
-      <c r="AR45" s="16"/>
-      <c r="AS45" s="16"/>
-      <c r="AT45" s="16"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="16"/>
-      <c r="AW45" s="16"/>
-      <c r="AX45" s="16"/>
-      <c r="AY45" s="16"/>
-      <c r="AZ45" s="16"/>
-      <c r="BA45" s="16"/>
-      <c r="BB45" s="16"/>
-      <c r="BC45" s="16"/>
-      <c r="BD45" s="16"/>
-      <c r="BE45" s="16"/>
-      <c r="BF45" s="16"/>
-      <c r="BG45" s="16"/>
-      <c r="BH45" s="16"/>
-      <c r="BI45" s="16"/>
-      <c r="BJ45" s="16"/>
-      <c r="BK45" s="16"/>
-      <c r="BL45" s="16"/>
-      <c r="BM45" s="16"/>
-      <c r="BN45" s="16"/>
-      <c r="BO45" s="16"/>
+      <c r="B45" s="43"/>
+      <c r="G45" s="44"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="30"/>
+      <c r="AX45" s="30"/>
+      <c r="AY45" s="30"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="30"/>
+      <c r="BC45" s="30"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="30"/>
+      <c r="BJ45" s="30"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+      <c r="BM45" s="30"/>
+      <c r="BN45" s="30"/>
+      <c r="BO45" s="30"/>
     </row>
     <row r="46" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
-      <c r="G46" s="19"/>
+      <c r="B46" s="43"/>
+      <c r="G46" s="44"/>
     </row>
     <row r="47" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="18"/>
-      <c r="G47" s="19"/>
+      <c r="B47" s="43"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="G48" s="19"/>
+      <c r="B48" s="43"/>
+      <c r="G48" s="44"/>
     </row>
     <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="G49" s="19"/>
+      <c r="B49" s="43"/>
+      <c r="G49" s="44"/>
     </row>
     <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="G50" s="19"/>
+      <c r="B50" s="43"/>
+      <c r="G50" s="44"/>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
-      <c r="G51" s="19"/>
+      <c r="B51" s="43"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="G52" s="19"/>
+      <c r="B52" s="43"/>
+      <c r="G52" s="44"/>
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
-      <c r="G53" s="19"/>
+      <c r="B53" s="43"/>
+      <c r="G53" s="44"/>
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="G54" s="19"/>
+      <c r="B54" s="43"/>
+      <c r="G54" s="44"/>
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="G55" s="19"/>
+      <c r="B55" s="43"/>
+      <c r="G55" s="44"/>
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="G56" s="19"/>
+      <c r="B56" s="43"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="B57" s="43"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="G58" s="19"/>
+      <c r="B58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="18"/>
-      <c r="G59" s="19"/>
+      <c r="B59" s="43"/>
+      <c r="G59" s="44"/>
     </row>
     <row r="60" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
-      <c r="G60" s="19"/>
+      <c r="B60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="B61" s="43"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
-      <c r="G62" s="19"/>
+      <c r="B62" s="43"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="G63" s="19"/>
+      <c r="B63" s="43"/>
+      <c r="G63" s="44"/>
     </row>
     <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
-      <c r="G64" s="19"/>
+      <c r="B64" s="43"/>
+      <c r="G64" s="44"/>
     </row>
     <row r="65" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
-      <c r="G65" s="19"/>
+      <c r="B65" s="43"/>
+      <c r="G65" s="44"/>
     </row>
     <row r="66" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
-      <c r="G66" s="19"/>
+      <c r="B66" s="43"/>
+      <c r="G66" s="44"/>
     </row>
     <row r="67" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="B67" s="43"/>
+      <c r="G67" s="44"/>
     </row>
     <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
-      <c r="G68" s="19"/>
+      <c r="B68" s="43"/>
+      <c r="G68" s="44"/>
     </row>
     <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="G69" s="19"/>
+      <c r="B69" s="43"/>
+      <c r="G69" s="44"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
-      <c r="G70" s="19"/>
+      <c r="B70" s="43"/>
+      <c r="G70" s="44"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="G71" s="19"/>
+      <c r="B71" s="43"/>
+      <c r="G71" s="44"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
-      <c r="G72" s="19"/>
+      <c r="B72" s="43"/>
+      <c r="G72" s="44"/>
     </row>
     <row r="73" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="18"/>
-      <c r="G73" s="19"/>
+      <c r="B73" s="43"/>
+      <c r="G73" s="44"/>
     </row>
     <row r="74" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="18"/>
-      <c r="G74" s="19"/>
+      <c r="B74" s="43"/>
+      <c r="G74" s="44"/>
     </row>
     <row r="75" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="18"/>
-      <c r="G75" s="19"/>
+      <c r="B75" s="43"/>
+      <c r="G75" s="44"/>
     </row>
     <row r="76" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="18"/>
-      <c r="G76" s="19"/>
+      <c r="B76" s="43"/>
+      <c r="G76" s="44"/>
     </row>
     <row r="77" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="18"/>
-      <c r="G77" s="19"/>
+      <c r="B77" s="43"/>
+      <c r="G77" s="44"/>
     </row>
     <row r="78" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
-      <c r="G78" s="19"/>
+      <c r="B78" s="43"/>
+      <c r="G78" s="44"/>
     </row>
     <row r="79" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="G79" s="19"/>
+      <c r="B79" s="43"/>
+      <c r="G79" s="44"/>
     </row>
     <row r="80" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
-      <c r="G80" s="19"/>
+      <c r="B80" s="43"/>
+      <c r="G80" s="44"/>
     </row>
     <row r="81" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="18"/>
-      <c r="G81" s="19"/>
+      <c r="B81" s="43"/>
+      <c r="G81" s="44"/>
     </row>
     <row r="82" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="18"/>
-      <c r="G82" s="19"/>
+      <c r="B82" s="43"/>
+      <c r="G82" s="44"/>
     </row>
     <row r="83" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="18"/>
-      <c r="G83" s="19"/>
+      <c r="B83" s="43"/>
+      <c r="G83" s="44"/>
     </row>
     <row r="84" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="18"/>
-      <c r="G84" s="19"/>
+      <c r="B84" s="43"/>
+      <c r="G84" s="44"/>
     </row>
     <row r="85" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="18"/>
-      <c r="G85" s="19"/>
+      <c r="B85" s="43"/>
+      <c r="G85" s="44"/>
     </row>
     <row r="86" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="18"/>
-      <c r="G86" s="19"/>
+      <c r="B86" s="43"/>
+      <c r="G86" s="44"/>
     </row>
     <row r="87" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="18"/>
-      <c r="G87" s="19"/>
+      <c r="B87" s="43"/>
+      <c r="G87" s="44"/>
     </row>
     <row r="88" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="18"/>
-      <c r="G88" s="19"/>
+      <c r="B88" s="43"/>
+      <c r="G88" s="44"/>
     </row>
     <row r="89" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="18"/>
-      <c r="G89" s="19"/>
+      <c r="B89" s="43"/>
+      <c r="G89" s="44"/>
     </row>
     <row r="90" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="G90" s="19"/>
+      <c r="B90" s="43"/>
+      <c r="G90" s="44"/>
     </row>
     <row r="91" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="18"/>
-      <c r="G91" s="19"/>
+      <c r="B91" s="43"/>
+      <c r="G91" s="44"/>
     </row>
     <row r="92" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="18"/>
-      <c r="G92" s="19"/>
+      <c r="B92" s="43"/>
+      <c r="G92" s="44"/>
     </row>
     <row r="93" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="18"/>
-      <c r="G93" s="19"/>
+      <c r="B93" s="43"/>
+      <c r="G93" s="44"/>
     </row>
     <row r="94" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="G94" s="19"/>
+      <c r="B94" s="43"/>
+      <c r="G94" s="44"/>
     </row>
     <row r="95" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="18"/>
-      <c r="G95" s="19"/>
+      <c r="B95" s="43"/>
+      <c r="G95" s="44"/>
     </row>
     <row r="96" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="18"/>
-      <c r="G96" s="19"/>
+      <c r="B96" s="43"/>
+      <c r="G96" s="44"/>
     </row>
     <row r="97" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="18"/>
-      <c r="G97" s="19"/>
+      <c r="B97" s="43"/>
+      <c r="G97" s="44"/>
     </row>
     <row r="98" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="18"/>
-      <c r="G98" s="19"/>
+      <c r="B98" s="43"/>
+      <c r="G98" s="44"/>
     </row>
     <row r="99" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="18"/>
-      <c r="G99" s="19"/>
+      <c r="B99" s="43"/>
+      <c r="G99" s="44"/>
     </row>
     <row r="100" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="18"/>
-      <c r="G100" s="19"/>
+      <c r="B100" s="43"/>
+      <c r="G100" s="44"/>
     </row>
     <row r="101" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="18"/>
-      <c r="G101" s="19"/>
+      <c r="B101" s="43"/>
+      <c r="G101" s="44"/>
     </row>
     <row r="102" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="18"/>
-      <c r="G102" s="19"/>
+      <c r="B102" s="43"/>
+      <c r="G102" s="44"/>
     </row>
     <row r="103" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="18"/>
-      <c r="G103" s="19"/>
+      <c r="B103" s="43"/>
+      <c r="G103" s="44"/>
     </row>
     <row r="104" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="18"/>
-      <c r="G104" s="19"/>
+      <c r="B104" s="43"/>
+      <c r="G104" s="44"/>
     </row>
     <row r="105" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="18"/>
-      <c r="G105" s="19"/>
+      <c r="B105" s="43"/>
+      <c r="G105" s="44"/>
     </row>
     <row r="106" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="18"/>
-      <c r="G106" s="19"/>
+      <c r="B106" s="43"/>
+      <c r="G106" s="44"/>
     </row>
     <row r="107" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="18"/>
-      <c r="G107" s="19"/>
+      <c r="B107" s="43"/>
+      <c r="G107" s="44"/>
     </row>
     <row r="108" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="18"/>
-      <c r="G108" s="19"/>
+      <c r="B108" s="43"/>
+      <c r="G108" s="44"/>
     </row>
     <row r="109" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="18"/>
-      <c r="G109" s="19"/>
+      <c r="B109" s="43"/>
+      <c r="G109" s="44"/>
     </row>
     <row r="110" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="18"/>
-      <c r="G110" s="19"/>
+      <c r="B110" s="43"/>
+      <c r="G110" s="44"/>
     </row>
     <row r="111" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="18"/>
-      <c r="G111" s="19"/>
+      <c r="B111" s="43"/>
+      <c r="G111" s="44"/>
     </row>
     <row r="112" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="18"/>
-      <c r="G112" s="19"/>
+      <c r="B112" s="43"/>
+      <c r="G112" s="44"/>
     </row>
     <row r="113" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="18"/>
-      <c r="G113" s="19"/>
+      <c r="B113" s="43"/>
+      <c r="G113" s="44"/>
     </row>
     <row r="114" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="18"/>
-      <c r="G114" s="19"/>
+      <c r="B114" s="43"/>
+      <c r="G114" s="44"/>
     </row>
     <row r="115" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="18"/>
-      <c r="G115" s="19"/>
+      <c r="B115" s="43"/>
+      <c r="G115" s="44"/>
     </row>
     <row r="116" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="18"/>
-      <c r="G116" s="19"/>
+      <c r="B116" s="43"/>
+      <c r="G116" s="44"/>
     </row>
     <row r="117" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="18"/>
-      <c r="G117" s="19"/>
+      <c r="B117" s="43"/>
+      <c r="G117" s="44"/>
     </row>
     <row r="118" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="18"/>
-      <c r="G118" s="19"/>
+      <c r="B118" s="43"/>
+      <c r="G118" s="44"/>
     </row>
     <row r="119" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="18"/>
-      <c r="G119" s="19"/>
+      <c r="B119" s="43"/>
+      <c r="G119" s="44"/>
     </row>
     <row r="120" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="18"/>
-      <c r="G120" s="19"/>
+      <c r="B120" s="43"/>
+      <c r="G120" s="44"/>
     </row>
     <row r="121" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="18"/>
-      <c r="G121" s="19"/>
+      <c r="B121" s="43"/>
+      <c r="G121" s="44"/>
     </row>
     <row r="122" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="18"/>
-      <c r="G122" s="19"/>
+      <c r="B122" s="43"/>
+      <c r="G122" s="44"/>
     </row>
     <row r="123" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="18"/>
-      <c r="G123" s="19"/>
+      <c r="B123" s="43"/>
+      <c r="G123" s="44"/>
     </row>
     <row r="124" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="18"/>
-      <c r="G124" s="19"/>
+      <c r="B124" s="43"/>
+      <c r="G124" s="44"/>
     </row>
     <row r="125" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="18"/>
-      <c r="G125" s="19"/>
+      <c r="B125" s="43"/>
+      <c r="G125" s="44"/>
     </row>
     <row r="126" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="18"/>
-      <c r="G126" s="19"/>
+      <c r="B126" s="43"/>
+      <c r="G126" s="44"/>
     </row>
     <row r="127" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="18"/>
-      <c r="G127" s="19"/>
+      <c r="B127" s="43"/>
+      <c r="G127" s="44"/>
     </row>
     <row r="128" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="18"/>
-      <c r="G128" s="19"/>
+      <c r="B128" s="43"/>
+      <c r="G128" s="44"/>
     </row>
     <row r="129" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="18"/>
-      <c r="G129" s="19"/>
+      <c r="B129" s="43"/>
+      <c r="G129" s="44"/>
     </row>
     <row r="130" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="18"/>
-      <c r="G130" s="19"/>
+      <c r="B130" s="43"/>
+      <c r="G130" s="44"/>
     </row>
     <row r="131" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="18"/>
-      <c r="G131" s="19"/>
+      <c r="B131" s="43"/>
+      <c r="G131" s="44"/>
     </row>
     <row r="132" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="18"/>
-      <c r="G132" s="19"/>
+      <c r="B132" s="43"/>
+      <c r="G132" s="44"/>
     </row>
     <row r="133" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="18"/>
-      <c r="G133" s="19"/>
+      <c r="B133" s="43"/>
+      <c r="G133" s="44"/>
     </row>
     <row r="134" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="18"/>
-      <c r="G134" s="19"/>
+      <c r="B134" s="43"/>
+      <c r="G134" s="44"/>
     </row>
     <row r="135" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="18"/>
-      <c r="G135" s="19"/>
+      <c r="B135" s="43"/>
+      <c r="G135" s="44"/>
     </row>
     <row r="136" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="18"/>
-      <c r="G136" s="19"/>
+      <c r="B136" s="43"/>
+      <c r="G136" s="44"/>
     </row>
     <row r="137" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="18"/>
-      <c r="G137" s="19"/>
+      <c r="B137" s="43"/>
+      <c r="G137" s="44"/>
     </row>
     <row r="138" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="18"/>
-      <c r="G138" s="19"/>
+      <c r="B138" s="43"/>
+      <c r="G138" s="44"/>
     </row>
     <row r="139" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="18"/>
-      <c r="G139" s="19"/>
+      <c r="B139" s="43"/>
+      <c r="G139" s="44"/>
     </row>
     <row r="140" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="18"/>
-      <c r="G140" s="19"/>
+      <c r="B140" s="43"/>
+      <c r="G140" s="44"/>
     </row>
     <row r="141" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="18"/>
-      <c r="G141" s="19"/>
+      <c r="B141" s="43"/>
+      <c r="G141" s="44"/>
     </row>
     <row r="142" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="18"/>
-      <c r="G142" s="19"/>
+      <c r="B142" s="43"/>
+      <c r="G142" s="44"/>
     </row>
     <row r="143" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="18"/>
-      <c r="G143" s="19"/>
+      <c r="B143" s="43"/>
+      <c r="G143" s="44"/>
     </row>
     <row r="144" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="18"/>
-      <c r="G144" s="19"/>
+      <c r="B144" s="43"/>
+      <c r="G144" s="44"/>
     </row>
     <row r="145" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="18"/>
-      <c r="G145" s="19"/>
+      <c r="B145" s="43"/>
+      <c r="G145" s="44"/>
     </row>
     <row r="146" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="18"/>
-      <c r="G146" s="19"/>
+      <c r="B146" s="43"/>
+      <c r="G146" s="44"/>
     </row>
     <row r="147" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="18"/>
-      <c r="G147" s="19"/>
+      <c r="B147" s="43"/>
+      <c r="G147" s="44"/>
     </row>
     <row r="148" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="18"/>
-      <c r="G148" s="19"/>
+      <c r="B148" s="43"/>
+      <c r="G148" s="44"/>
     </row>
     <row r="149" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="18"/>
-      <c r="G149" s="19"/>
+      <c r="B149" s="43"/>
+      <c r="G149" s="44"/>
     </row>
     <row r="150" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="18"/>
-      <c r="G150" s="19"/>
+      <c r="B150" s="43"/>
+      <c r="G150" s="44"/>
     </row>
     <row r="151" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="18"/>
-      <c r="G151" s="19"/>
+      <c r="B151" s="43"/>
+      <c r="G151" s="44"/>
     </row>
     <row r="152" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="18"/>
-      <c r="G152" s="19"/>
+      <c r="B152" s="43"/>
+      <c r="G152" s="44"/>
     </row>
     <row r="153" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="18"/>
-      <c r="G153" s="19"/>
+      <c r="B153" s="43"/>
+      <c r="G153" s="44"/>
     </row>
     <row r="154" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="18"/>
-      <c r="G154" s="19"/>
+      <c r="B154" s="43"/>
+      <c r="G154" s="44"/>
     </row>
     <row r="155" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="18"/>
-      <c r="G155" s="19"/>
+      <c r="B155" s="43"/>
+      <c r="G155" s="44"/>
     </row>
     <row r="156" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="18"/>
-      <c r="G156" s="19"/>
+      <c r="B156" s="43"/>
+      <c r="G156" s="44"/>
     </row>
     <row r="157" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="18"/>
-      <c r="G157" s="19"/>
+      <c r="B157" s="43"/>
+      <c r="G157" s="44"/>
     </row>
     <row r="158" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="18"/>
-      <c r="G158" s="19"/>
+      <c r="B158" s="43"/>
+      <c r="G158" s="44"/>
     </row>
     <row r="159" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="18"/>
-      <c r="G159" s="19"/>
+      <c r="B159" s="43"/>
+      <c r="G159" s="44"/>
     </row>
     <row r="160" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="18"/>
-      <c r="G160" s="19"/>
+      <c r="B160" s="43"/>
+      <c r="G160" s="44"/>
     </row>
     <row r="161" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="18"/>
-      <c r="G161" s="19"/>
+      <c r="B161" s="43"/>
+      <c r="G161" s="44"/>
     </row>
     <row r="162" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="18"/>
-      <c r="G162" s="19"/>
+      <c r="B162" s="43"/>
+      <c r="G162" s="44"/>
     </row>
     <row r="163" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="18"/>
-      <c r="G163" s="19"/>
+      <c r="B163" s="43"/>
+      <c r="G163" s="44"/>
     </row>
     <row r="164" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="18"/>
-      <c r="G164" s="19"/>
+      <c r="B164" s="43"/>
+      <c r="G164" s="44"/>
     </row>
     <row r="165" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="18"/>
-      <c r="G165" s="19"/>
+      <c r="B165" s="43"/>
+      <c r="G165" s="44"/>
     </row>
     <row r="166" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="18"/>
-      <c r="G166" s="19"/>
+      <c r="B166" s="43"/>
+      <c r="G166" s="44"/>
     </row>
     <row r="167" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="18"/>
-      <c r="G167" s="19"/>
+      <c r="B167" s="43"/>
+      <c r="G167" s="44"/>
     </row>
     <row r="168" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="18"/>
-      <c r="G168" s="19"/>
+      <c r="B168" s="43"/>
+      <c r="G168" s="44"/>
     </row>
     <row r="169" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="18"/>
-      <c r="G169" s="19"/>
+      <c r="B169" s="43"/>
+      <c r="G169" s="44"/>
     </row>
     <row r="170" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="18"/>
-      <c r="G170" s="19"/>
+      <c r="B170" s="43"/>
+      <c r="G170" s="44"/>
     </row>
     <row r="171" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="18"/>
-      <c r="G171" s="19"/>
+      <c r="B171" s="43"/>
+      <c r="G171" s="44"/>
     </row>
     <row r="172" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="18"/>
-      <c r="G172" s="19"/>
+      <c r="B172" s="43"/>
+      <c r="G172" s="44"/>
     </row>
     <row r="173" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="18"/>
-      <c r="G173" s="19"/>
+      <c r="B173" s="43"/>
+      <c r="G173" s="44"/>
     </row>
     <row r="174" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="18"/>
-      <c r="G174" s="19"/>
+      <c r="B174" s="43"/>
+      <c r="G174" s="44"/>
     </row>
     <row r="175" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="18"/>
-      <c r="G175" s="19"/>
+      <c r="B175" s="43"/>
+      <c r="G175" s="44"/>
     </row>
     <row r="176" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="18"/>
-      <c r="G176" s="19"/>
+      <c r="B176" s="43"/>
+      <c r="G176" s="44"/>
     </row>
     <row r="177" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="18"/>
-      <c r="G177" s="19"/>
+      <c r="B177" s="43"/>
+      <c r="G177" s="44"/>
     </row>
     <row r="178" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="18"/>
-      <c r="G178" s="19"/>
+      <c r="B178" s="43"/>
+      <c r="G178" s="44"/>
     </row>
     <row r="179" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="18"/>
-      <c r="G179" s="19"/>
+      <c r="B179" s="43"/>
+      <c r="G179" s="44"/>
     </row>
     <row r="180" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="18"/>
-      <c r="G180" s="19"/>
+      <c r="B180" s="43"/>
+      <c r="G180" s="44"/>
     </row>
     <row r="181" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="18"/>
-      <c r="G181" s="19"/>
+      <c r="B181" s="43"/>
+      <c r="G181" s="44"/>
     </row>
     <row r="182" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="18"/>
-      <c r="G182" s="19"/>
+      <c r="B182" s="43"/>
+      <c r="G182" s="44"/>
     </row>
     <row r="183" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="18"/>
-      <c r="G183" s="19"/>
+      <c r="B183" s="43"/>
+      <c r="G183" s="44"/>
     </row>
     <row r="184" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="18"/>
-      <c r="G184" s="19"/>
+      <c r="B184" s="43"/>
+      <c r="G184" s="44"/>
     </row>
     <row r="185" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="18"/>
-      <c r="G185" s="19"/>
+      <c r="B185" s="43"/>
+      <c r="G185" s="44"/>
     </row>
     <row r="186" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="18"/>
-      <c r="G186" s="19"/>
+      <c r="B186" s="43"/>
+      <c r="G186" s="44"/>
     </row>
     <row r="187" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="18"/>
-      <c r="G187" s="19"/>
+      <c r="B187" s="43"/>
+      <c r="G187" s="44"/>
     </row>
     <row r="188" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="18"/>
-      <c r="G188" s="19"/>
+      <c r="B188" s="43"/>
+      <c r="G188" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/1 - DOC/Gantt-prévisionnel.xlsx
+++ b/1 - DOC/Gantt-prévisionnel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMILLION\Desktop\GitTube\Projet.PHP.Objet\1 - DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programe\wamp64\www\B2\GITUB\.git\Projet.PHP.Objet\1 - DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="RéelAuDelà">PériodeDansRéel*('Planificateur de projet'!$E1&gt;0)</definedName>
     <definedName name="TitreRégion..BO60">'Planificateur de projet'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,17 +704,131 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -725,147 +839,33 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% accompli" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Activité" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="% accompli" xfId="16"/>
+    <cellStyle name="Activité" xfId="2"/>
+    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7"/>
+    <cellStyle name="En-têtes de période" xfId="3"/>
+    <cellStyle name="En-têtes de projet" xfId="4"/>
+    <cellStyle name="Étiquette" xfId="5"/>
+    <cellStyle name="Légende de ce qui a été accompli" xfId="15"/>
+    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17"/>
+    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18"/>
+    <cellStyle name="Légende du plan" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Pourcentage accompli" xfId="6"/>
     <cellStyle name="Texte explicatif" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Titre" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Valeur de la période" xfId="13"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1369,25 +1369,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BP188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BW5" sqref="BW5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="45" customWidth="1"/>
-    <col min="3" max="5" width="11.625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="34" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="46" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="4.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="30" customWidth="1"/>
+    <col min="3" max="5" width="11.625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="21" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="4.25" style="21" customWidth="1"/>
     <col min="28" max="44" width="4.25" style="4" customWidth="1"/>
     <col min="45" max="16384" width="2.75" style="4"/>
   </cols>
@@ -1438,261 +1438,261 @@
       <c r="AP1" s="3"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>8</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="9" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15" t="s">
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="15" t="s">
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="15" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-    </row>
-    <row r="3" spans="2:67" s="26" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+    </row>
+    <row r="3" spans="2:67" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29">
+      <c r="B4" s="43"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="16">
         <v>2</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="16">
         <v>3</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="16">
         <v>4</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="16">
         <v>5</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="16">
         <v>6</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="16">
         <v>7</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="16">
         <v>8</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="16">
         <v>9</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="16">
         <v>10</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="16">
         <v>11</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="16">
         <v>12</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="16">
         <v>13</v>
       </c>
-      <c r="U4" s="29">
-        <v>14</v>
-      </c>
-      <c r="V4" s="29">
+      <c r="U4" s="16">
+        <v>14</v>
+      </c>
+      <c r="V4" s="16">
         <v>15</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="16">
         <v>16</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="16">
         <v>17</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="16">
         <v>18</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="16">
         <v>19</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="16">
         <v>20</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="16">
         <v>21</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="16">
         <v>22</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4" s="16">
         <v>23</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="16">
         <v>24</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="16">
         <v>25</v>
       </c>
-      <c r="AG4" s="29">
+      <c r="AG4" s="16">
         <v>26</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4" s="16">
         <v>27</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4" s="16">
         <v>28</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="16">
         <v>29</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AK4" s="16">
         <v>30</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AL4" s="16">
         <v>31</v>
       </c>
-      <c r="AM4" s="29">
+      <c r="AM4" s="16">
         <v>32</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4" s="16">
         <v>33</v>
       </c>
-      <c r="AO4" s="29">
+      <c r="AO4" s="16">
         <v>34</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AP4" s="16">
         <v>35</v>
       </c>
-      <c r="AQ4" s="29">
+      <c r="AQ4" s="16">
         <v>36</v>
       </c>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="30"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="30"/>
-      <c r="AV4" s="30"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="30"/>
-      <c r="AY4" s="30"/>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30"/>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30"/>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="30"/>
-      <c r="BK4" s="30"/>
-      <c r="BL4" s="30"/>
-      <c r="BM4" s="30"/>
-      <c r="BN4" s="30"/>
-      <c r="BO4" s="30"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
     </row>
     <row r="5" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="19">
         <v>7</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="19">
         <v>7</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="20">
         <v>1</v>
       </c>
       <c r="P5" s="3"/>
@@ -1720,27 +1720,27 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="47"/>
+      <c r="AO5" s="32"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="51"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="19">
         <v>3</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="19">
         <v>3</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="20">
         <v>1</v>
       </c>
       <c r="P6" s="3"/>
@@ -1768,19 +1768,19 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="47"/>
+      <c r="AO6" s="32"/>
       <c r="AP6" s="3"/>
-      <c r="AQ6" s="51"/>
+      <c r="AQ6" s="36"/>
     </row>
     <row r="7" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1806,27 +1806,27 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="47"/>
+      <c r="AO7" s="32"/>
       <c r="AP7" s="3"/>
-      <c r="AQ7" s="51"/>
+      <c r="AQ7" s="36"/>
     </row>
     <row r="8" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="19">
         <v>2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="19">
         <v>2</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="20">
         <v>1</v>
       </c>
       <c r="P8" s="3"/>
@@ -1854,27 +1854,27 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="47"/>
+      <c r="AO8" s="32"/>
       <c r="AP8" s="3"/>
-      <c r="AQ8" s="51"/>
+      <c r="AQ8" s="36"/>
     </row>
     <row r="9" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="19">
         <v>2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="20">
         <v>1</v>
       </c>
       <c r="P9" s="3"/>
@@ -1902,27 +1902,27 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="47"/>
+      <c r="AO9" s="32"/>
       <c r="AP9" s="3"/>
-      <c r="AQ9" s="51"/>
+      <c r="AQ9" s="36"/>
     </row>
     <row r="10" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="19">
         <v>2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="19">
         <v>2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="20">
         <v>1</v>
       </c>
       <c r="P10" s="3"/>
@@ -1950,23 +1950,23 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="47"/>
+      <c r="AO10" s="32"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="51"/>
+      <c r="AQ10" s="36"/>
     </row>
     <row r="11" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="19">
         <v>2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="19">
         <v>6</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20">
         <v>0</v>
       </c>
       <c r="P11" s="3"/>
@@ -1994,28 +1994,28 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="47"/>
+      <c r="AO11" s="32"/>
       <c r="AP11" s="3"/>
-      <c r="AQ11" s="51"/>
+      <c r="AQ11" s="36"/>
     </row>
     <row r="12" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="19">
         <v>6</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="19">
         <v>2</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="19">
         <v>6</v>
       </c>
-      <c r="G12" s="33">
-        <v>1</v>
+      <c r="G12" s="20">
+        <v>0</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2042,27 +2042,27 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="47"/>
+      <c r="AO12" s="32"/>
       <c r="AP12" s="3"/>
-      <c r="AQ12" s="51"/>
+      <c r="AQ12" s="36"/>
     </row>
     <row r="13" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="19">
         <v>6</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="19">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="20">
         <v>1</v>
       </c>
       <c r="P13" s="3"/>
@@ -2090,27 +2090,27 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="47"/>
+      <c r="AO13" s="32"/>
       <c r="AP13" s="3"/>
-      <c r="AQ13" s="51"/>
+      <c r="AQ13" s="36"/>
     </row>
     <row r="14" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="19">
         <v>6</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="19">
         <v>6</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="19">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="20">
         <v>1</v>
       </c>
       <c r="P14" s="3"/>
@@ -2138,23 +2138,23 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="47"/>
+      <c r="AO14" s="32"/>
       <c r="AP14" s="3"/>
-      <c r="AQ14" s="51"/>
+      <c r="AQ14" s="36"/>
     </row>
     <row r="15" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="19">
         <v>8</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="19">
         <v>28</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20">
         <v>0</v>
       </c>
       <c r="P15" s="3"/>
@@ -2182,23 +2182,23 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="47"/>
+      <c r="AO15" s="32"/>
       <c r="AP15" s="3"/>
-      <c r="AQ15" s="51"/>
+      <c r="AQ15" s="36"/>
     </row>
     <row r="16" spans="2:67" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="19">
         <v>8</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="19">
         <v>28</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="P16" s="3"/>
@@ -2226,23 +2226,23 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="47"/>
+      <c r="AO16" s="32"/>
       <c r="AP16" s="3"/>
-      <c r="AQ16" s="51"/>
+      <c r="AQ16" s="36"/>
     </row>
     <row r="17" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="19">
         <v>8</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="19">
         <v>28</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20">
         <v>0</v>
       </c>
       <c r="P17" s="3"/>
@@ -2270,23 +2270,23 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="47"/>
+      <c r="AO17" s="32"/>
       <c r="AP17" s="3"/>
-      <c r="AQ17" s="51"/>
+      <c r="AQ17" s="36"/>
     </row>
     <row r="18" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="19">
         <v>8</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="19">
         <v>28</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20">
         <v>0</v>
       </c>
       <c r="P18" s="3"/>
@@ -2314,12 +2314,12 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="47"/>
+      <c r="AO18" s="32"/>
       <c r="AP18" s="3"/>
-      <c r="AQ18" s="51"/>
-    </row>
-    <row r="19" spans="1:68" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="AQ18" s="36"/>
+    </row>
+    <row r="19" spans="1:68" s="26" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="38" t="s">
         <v>18</v>
       </c>
@@ -2328,895 +2328,895 @@
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AO19" s="48"/>
-      <c r="AQ19" s="48"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AO19" s="33"/>
+      <c r="AQ19" s="33"/>
     </row>
     <row r="20" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="19">
         <v>8</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="19">
         <v>7</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="33">
+      <c r="E20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="20">
         <v>0</v>
       </c>
-      <c r="AO20" s="49"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="49"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="26"/>
-      <c r="BD20" s="26"/>
-      <c r="BE20" s="26"/>
-      <c r="BF20" s="26"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="26"/>
-      <c r="BM20" s="26"/>
-      <c r="BN20" s="26"/>
-      <c r="BO20" s="26"/>
-      <c r="BP20" s="26"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+      <c r="AU20" s="15"/>
+      <c r="AV20" s="15"/>
+      <c r="AW20" s="15"/>
+      <c r="AX20" s="15"/>
+      <c r="AY20" s="15"/>
+      <c r="AZ20" s="15"/>
+      <c r="BA20" s="15"/>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="15"/>
+      <c r="BF20" s="15"/>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
     </row>
     <row r="21" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="19">
         <v>8</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="19">
         <v>3</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="33">
+      <c r="E21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="20">
         <v>0</v>
       </c>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="26"/>
-      <c r="BA21" s="26"/>
-      <c r="BB21" s="26"/>
-      <c r="BC21" s="26"/>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="26"/>
-      <c r="BM21" s="26"/>
-      <c r="BN21" s="26"/>
-      <c r="BO21" s="26"/>
-      <c r="BP21" s="26"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="15"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
     </row>
     <row r="22" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="19">
         <v>8</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="19">
         <v>3</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="33">
+      <c r="E22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="20">
         <v>0</v>
       </c>
-      <c r="AO22" s="49"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="49"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
-      <c r="BA22" s="26"/>
-      <c r="BB22" s="26"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="26"/>
-      <c r="BE22" s="26"/>
-      <c r="BF22" s="26"/>
-      <c r="BG22" s="26"/>
-      <c r="BH22" s="26"/>
-      <c r="BI22" s="26"/>
-      <c r="BJ22" s="26"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="26"/>
-      <c r="BM22" s="26"/>
-      <c r="BN22" s="26"/>
-      <c r="BO22" s="26"/>
-      <c r="BP22" s="26"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="15"/>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="15"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="15"/>
+      <c r="BP22" s="15"/>
     </row>
     <row r="23" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="19">
         <v>8</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="19">
         <v>3</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="33">
+      <c r="E23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="20">
         <v>0</v>
       </c>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="26"/>
-      <c r="BD23" s="26"/>
-      <c r="BE23" s="26"/>
-      <c r="BF23" s="26"/>
-      <c r="BG23" s="26"/>
-      <c r="BH23" s="26"/>
-      <c r="BI23" s="26"/>
-      <c r="BJ23" s="26"/>
-      <c r="BK23" s="26"/>
-      <c r="BL23" s="26"/>
-      <c r="BM23" s="26"/>
-      <c r="BN23" s="26"/>
-      <c r="BO23" s="26"/>
-      <c r="BP23" s="26"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15"/>
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
     </row>
     <row r="24" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="19">
         <v>8</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="19">
         <v>3</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="33">
+      <c r="E24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="20">
         <v>0</v>
       </c>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
-      <c r="BA24" s="26"/>
-      <c r="BB24" s="26"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="26"/>
-      <c r="BE24" s="26"/>
-      <c r="BF24" s="26"/>
-      <c r="BG24" s="26"/>
-      <c r="BH24" s="26"/>
-      <c r="BI24" s="26"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="26"/>
-      <c r="BL24" s="26"/>
-      <c r="BM24" s="26"/>
-      <c r="BN24" s="26"/>
-      <c r="BO24" s="26"/>
-      <c r="BP24" s="26"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
     </row>
     <row r="25" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="19">
         <v>11</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="19">
         <v>4</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="33">
+      <c r="E25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="20">
         <v>0</v>
       </c>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="26"/>
-      <c r="BA25" s="26"/>
-      <c r="BB25" s="26"/>
-      <c r="BC25" s="26"/>
-      <c r="BD25" s="26"/>
-      <c r="BE25" s="26"/>
-      <c r="BF25" s="26"/>
-      <c r="BG25" s="26"/>
-      <c r="BH25" s="26"/>
-      <c r="BI25" s="26"/>
-      <c r="BJ25" s="26"/>
-      <c r="BK25" s="26"/>
-      <c r="BL25" s="26"/>
-      <c r="BM25" s="26"/>
-      <c r="BN25" s="26"/>
-      <c r="BO25" s="26"/>
-      <c r="BP25" s="26"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
     </row>
     <row r="26" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="19">
         <v>11</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="19">
         <v>4</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="33">
+      <c r="E26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="20">
         <v>0</v>
       </c>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="26"/>
-      <c r="BD26" s="26"/>
-      <c r="BE26" s="26"/>
-      <c r="BF26" s="26"/>
-      <c r="BG26" s="26"/>
-      <c r="BH26" s="26"/>
-      <c r="BI26" s="26"/>
-      <c r="BJ26" s="26"/>
-      <c r="BK26" s="26"/>
-      <c r="BL26" s="26"/>
-      <c r="BM26" s="26"/>
-      <c r="BN26" s="26"/>
-      <c r="BO26" s="26"/>
-      <c r="BP26" s="26"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15"/>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
     </row>
     <row r="27" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="19">
         <v>11</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="19">
         <v>4</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="33">
+      <c r="E27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="20">
         <v>0</v>
       </c>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="26"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="26"/>
-      <c r="BP27" s="26"/>
+      <c r="AO27" s="34"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="34"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
     </row>
     <row r="28" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="19">
         <v>15</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="19">
         <v>7</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="33">
+      <c r="E28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="20">
         <v>0</v>
       </c>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="26"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="26"/>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="26"/>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="26"/>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="26"/>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="26"/>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="26"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="15"/>
+      <c r="AW28" s="15"/>
+      <c r="AX28" s="15"/>
+      <c r="AY28" s="15"/>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="15"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="15"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="15"/>
     </row>
     <row r="29" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="19">
         <v>15</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="19">
         <v>3</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="33">
+      <c r="E29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="20">
         <v>0</v>
       </c>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="26"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="26"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="15"/>
+      <c r="AW29" s="15"/>
+      <c r="AX29" s="15"/>
+      <c r="AY29" s="15"/>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
     </row>
     <row r="30" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="19">
         <v>15</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="19">
         <v>3</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="33">
+      <c r="E30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="20">
         <v>0</v>
       </c>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="26"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="26"/>
-      <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
-      <c r="AV30" s="26"/>
-      <c r="AW30" s="26"/>
-      <c r="AX30" s="26"/>
-      <c r="AY30" s="26"/>
-      <c r="AZ30" s="26"/>
-      <c r="BA30" s="26"/>
-      <c r="BB30" s="26"/>
-      <c r="BC30" s="26"/>
-      <c r="BD30" s="26"/>
-      <c r="BE30" s="26"/>
-      <c r="BF30" s="26"/>
-      <c r="BG30" s="26"/>
-      <c r="BH30" s="26"/>
-      <c r="BI30" s="26"/>
-      <c r="BJ30" s="26"/>
-      <c r="BK30" s="26"/>
-      <c r="BL30" s="26"/>
-      <c r="BM30" s="26"/>
-      <c r="BN30" s="26"/>
-      <c r="BO30" s="26"/>
-      <c r="BP30" s="26"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="15"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
     </row>
     <row r="31" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="19">
         <v>18</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="19">
         <v>4</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="33">
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="20">
         <v>0</v>
       </c>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="26"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="26"/>
-      <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
-      <c r="AV31" s="26"/>
-      <c r="AW31" s="26"/>
-      <c r="AX31" s="26"/>
-      <c r="AY31" s="26"/>
-      <c r="AZ31" s="26"/>
-      <c r="BA31" s="26"/>
-      <c r="BB31" s="26"/>
-      <c r="BC31" s="26"/>
-      <c r="BD31" s="26"/>
-      <c r="BE31" s="26"/>
-      <c r="BF31" s="26"/>
-      <c r="BG31" s="26"/>
-      <c r="BH31" s="26"/>
-      <c r="BI31" s="26"/>
-      <c r="BJ31" s="26"/>
-      <c r="BK31" s="26"/>
-      <c r="BL31" s="26"/>
-      <c r="BM31" s="26"/>
-      <c r="BN31" s="26"/>
-      <c r="BO31" s="26"/>
-      <c r="BP31" s="26"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="15"/>
+      <c r="AT31" s="15"/>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="15"/>
+      <c r="AW31" s="15"/>
+      <c r="AX31" s="15"/>
+      <c r="AY31" s="15"/>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="15"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
     </row>
     <row r="32" spans="1:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="19">
         <v>18</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="19">
         <v>4</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="33">
+      <c r="E32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="20">
         <v>0</v>
       </c>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="26"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="26"/>
-      <c r="BD32" s="26"/>
-      <c r="BE32" s="26"/>
-      <c r="BF32" s="26"/>
-      <c r="BG32" s="26"/>
-      <c r="BH32" s="26"/>
-      <c r="BI32" s="26"/>
-      <c r="BJ32" s="26"/>
-      <c r="BK32" s="26"/>
-      <c r="BL32" s="26"/>
-      <c r="BM32" s="26"/>
-      <c r="BN32" s="26"/>
-      <c r="BO32" s="26"/>
-      <c r="BP32" s="26"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="15"/>
+      <c r="AT32" s="15"/>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="15"/>
+      <c r="AW32" s="15"/>
+      <c r="AX32" s="15"/>
+      <c r="AY32" s="15"/>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="15"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
     </row>
     <row r="33" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="19">
         <v>22</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="19">
         <v>3</v>
       </c>
-      <c r="E33" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="33">
+      <c r="E33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="20">
         <v>0</v>
       </c>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="26"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="26"/>
-      <c r="AW33" s="26"/>
-      <c r="AX33" s="26"/>
-      <c r="AY33" s="26"/>
-      <c r="AZ33" s="26"/>
-      <c r="BA33" s="26"/>
-      <c r="BB33" s="26"/>
-      <c r="BC33" s="26"/>
-      <c r="BD33" s="26"/>
-      <c r="BE33" s="26"/>
-      <c r="BF33" s="26"/>
-      <c r="BG33" s="26"/>
-      <c r="BH33" s="26"/>
-      <c r="BI33" s="26"/>
-      <c r="BJ33" s="26"/>
-      <c r="BK33" s="26"/>
-      <c r="BL33" s="26"/>
-      <c r="BM33" s="26"/>
-      <c r="BN33" s="26"/>
-      <c r="BO33" s="26"/>
-      <c r="BP33" s="26"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="15"/>
+      <c r="BF33" s="15"/>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
     </row>
     <row r="34" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="19">
         <v>22</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="19">
         <v>1</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="33">
+      <c r="E34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="20">
         <v>0</v>
       </c>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="26"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26"/>
-      <c r="BO34" s="26"/>
-      <c r="BP34" s="26"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="15"/>
+      <c r="AS34" s="15"/>
+      <c r="AT34" s="15"/>
+      <c r="AU34" s="15"/>
+      <c r="AV34" s="15"/>
+      <c r="AW34" s="15"/>
+      <c r="AX34" s="15"/>
+      <c r="AY34" s="15"/>
+      <c r="AZ34" s="15"/>
+      <c r="BA34" s="15"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="15"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
     </row>
     <row r="35" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="19">
         <v>23</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="19">
         <v>1</v>
       </c>
-      <c r="E35" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="33">
+      <c r="E35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="20">
         <v>0</v>
       </c>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="26"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="26"/>
-      <c r="BD35" s="26"/>
-      <c r="BE35" s="26"/>
-      <c r="BF35" s="26"/>
-      <c r="BG35" s="26"/>
-      <c r="BH35" s="26"/>
-      <c r="BI35" s="26"/>
-      <c r="BJ35" s="26"/>
-      <c r="BK35" s="26"/>
-      <c r="BL35" s="26"/>
-      <c r="BM35" s="26"/>
-      <c r="BN35" s="26"/>
-      <c r="BO35" s="26"/>
-      <c r="BP35" s="26"/>
+      <c r="AO35" s="34"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="34"/>
+      <c r="AR35" s="15"/>
+      <c r="AS35" s="15"/>
+      <c r="AT35" s="15"/>
+      <c r="AU35" s="15"/>
+      <c r="AV35" s="15"/>
+      <c r="AW35" s="15"/>
+      <c r="AX35" s="15"/>
+      <c r="AY35" s="15"/>
+      <c r="AZ35" s="15"/>
+      <c r="BA35" s="15"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="15"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="15"/>
     </row>
     <row r="36" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="19">
         <v>24</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="33">
+      <c r="E36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="20">
         <v>0</v>
       </c>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="26"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="26"/>
-      <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
-      <c r="AV36" s="26"/>
-      <c r="AW36" s="26"/>
-      <c r="AX36" s="26"/>
-      <c r="AY36" s="26"/>
-      <c r="AZ36" s="26"/>
-      <c r="BA36" s="26"/>
-      <c r="BB36" s="26"/>
-      <c r="BC36" s="26"/>
-      <c r="BD36" s="26"/>
-      <c r="BE36" s="26"/>
-      <c r="BF36" s="26"/>
-      <c r="BG36" s="26"/>
-      <c r="BH36" s="26"/>
-      <c r="BI36" s="26"/>
-      <c r="BJ36" s="26"/>
-      <c r="BK36" s="26"/>
-      <c r="BL36" s="26"/>
-      <c r="BM36" s="26"/>
-      <c r="BN36" s="26"/>
-      <c r="BO36" s="26"/>
-      <c r="BP36" s="26"/>
+      <c r="AO36" s="34"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="34"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="15"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
     </row>
     <row r="37" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="19">
         <v>25</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="19">
         <v>3</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="33">
+      <c r="E37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="20">
         <v>0</v>
       </c>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="50"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="30"/>
-      <c r="AV37" s="30"/>
-      <c r="AW37" s="30"/>
-      <c r="AX37" s="30"/>
-      <c r="AY37" s="30"/>
-      <c r="AZ37" s="30"/>
-      <c r="BA37" s="30"/>
-      <c r="BB37" s="30"/>
-      <c r="BC37" s="30"/>
-      <c r="BD37" s="30"/>
-      <c r="BE37" s="30"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="30"/>
-      <c r="BI37" s="30"/>
-      <c r="BJ37" s="30"/>
-      <c r="BK37" s="30"/>
-      <c r="BL37" s="30"/>
-      <c r="BM37" s="30"/>
-      <c r="BN37" s="30"/>
-      <c r="BO37" s="30"/>
-      <c r="BP37" s="30"/>
+      <c r="AO37" s="35"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="35"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="17"/>
     </row>
     <row r="38" spans="2:68" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="3">
@@ -3225,42 +3225,42 @@
       <c r="D38" s="3">
         <v>2</v>
       </c>
-      <c r="E38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="33">
+      <c r="E38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="20">
         <v>0</v>
       </c>
-      <c r="AO38" s="51"/>
-      <c r="AQ38" s="51"/>
+      <c r="AO38" s="36"/>
+      <c r="AQ38" s="36"/>
     </row>
     <row r="39" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="19">
         <v>27</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="19">
         <v>1</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="33">
+      <c r="E39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="20">
         <v>0</v>
       </c>
-      <c r="AO39" s="51"/>
-      <c r="AQ39" s="51"/>
+      <c r="AO39" s="36"/>
+      <c r="AQ39" s="36"/>
     </row>
     <row r="40" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="3">
@@ -3269,757 +3269,757 @@
       <c r="D40" s="3">
         <v>30</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="33">
+      <c r="E40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="20">
         <v>0</v>
       </c>
-      <c r="AO40" s="51"/>
-      <c r="AQ40" s="51"/>
+      <c r="AO40" s="36"/>
+      <c r="AQ40" s="36"/>
     </row>
     <row r="41" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="AO41" s="49"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="49"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="26"/>
-      <c r="AY41" s="26"/>
-      <c r="AZ41" s="26"/>
-      <c r="BA41" s="26"/>
-      <c r="BB41" s="26"/>
-      <c r="BC41" s="26"/>
-      <c r="BD41" s="26"/>
-      <c r="BE41" s="26"/>
-      <c r="BF41" s="26"/>
-      <c r="BG41" s="26"/>
-      <c r="BH41" s="26"/>
-      <c r="BI41" s="26"/>
-      <c r="BJ41" s="26"/>
-      <c r="BK41" s="26"/>
-      <c r="BL41" s="26"/>
-      <c r="BM41" s="26"/>
-      <c r="BN41" s="26"/>
-      <c r="BO41" s="26"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="AO41" s="34"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="34"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
     </row>
     <row r="42" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="19">
         <v>28</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="19">
         <v>7</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="33">
+      <c r="E42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="20">
         <v>0</v>
       </c>
-      <c r="AO42" s="51"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="50"/>
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
-      <c r="AU42" s="30"/>
-      <c r="AV42" s="30"/>
-      <c r="AW42" s="30"/>
-      <c r="AX42" s="30"/>
-      <c r="AY42" s="30"/>
-      <c r="AZ42" s="30"/>
-      <c r="BA42" s="30"/>
-      <c r="BB42" s="30"/>
-      <c r="BC42" s="30"/>
-      <c r="BD42" s="30"/>
-      <c r="BE42" s="30"/>
-      <c r="BF42" s="30"/>
-      <c r="BG42" s="30"/>
-      <c r="BH42" s="30"/>
-      <c r="BI42" s="30"/>
-      <c r="BJ42" s="30"/>
-      <c r="BK42" s="30"/>
-      <c r="BL42" s="30"/>
-      <c r="BM42" s="30"/>
-      <c r="BN42" s="30"/>
-      <c r="BO42" s="30"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
+      <c r="BF42" s="17"/>
+      <c r="BG42" s="17"/>
+      <c r="BH42" s="17"/>
+      <c r="BI42" s="17"/>
+      <c r="BJ42" s="17"/>
+      <c r="BK42" s="17"/>
+      <c r="BL42" s="17"/>
+      <c r="BM42" s="17"/>
+      <c r="BN42" s="17"/>
+      <c r="BO42" s="17"/>
     </row>
     <row r="43" spans="2:68" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="19">
         <v>28</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="19">
         <v>7</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="33">
+      <c r="E43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="20">
         <v>0</v>
       </c>
-      <c r="AO43" s="51"/>
-      <c r="AQ43" s="51"/>
+      <c r="AO43" s="36"/>
+      <c r="AQ43" s="36"/>
     </row>
     <row r="44" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="AO44" s="26"/>
-      <c r="AP44" s="26"/>
-      <c r="AQ44" s="26"/>
-      <c r="AR44" s="26"/>
-      <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
-      <c r="AV44" s="26"/>
-      <c r="AW44" s="26"/>
-      <c r="AX44" s="26"/>
-      <c r="AY44" s="26"/>
-      <c r="AZ44" s="26"/>
-      <c r="BA44" s="26"/>
-      <c r="BB44" s="26"/>
-      <c r="BC44" s="26"/>
-      <c r="BD44" s="26"/>
-      <c r="BE44" s="26"/>
-      <c r="BF44" s="26"/>
-      <c r="BG44" s="26"/>
-      <c r="BH44" s="26"/>
-      <c r="BI44" s="26"/>
-      <c r="BJ44" s="26"/>
-      <c r="BK44" s="26"/>
-      <c r="BL44" s="26"/>
-      <c r="BM44" s="26"/>
-      <c r="BN44" s="26"/>
-      <c r="BO44" s="26"/>
+      <c r="B44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
     </row>
     <row r="45" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
-      <c r="AU45" s="30"/>
-      <c r="AV45" s="30"/>
-      <c r="AW45" s="30"/>
-      <c r="AX45" s="30"/>
-      <c r="AY45" s="30"/>
-      <c r="AZ45" s="30"/>
-      <c r="BA45" s="30"/>
-      <c r="BB45" s="30"/>
-      <c r="BC45" s="30"/>
-      <c r="BD45" s="30"/>
-      <c r="BE45" s="30"/>
-      <c r="BF45" s="30"/>
-      <c r="BG45" s="30"/>
-      <c r="BH45" s="30"/>
-      <c r="BI45" s="30"/>
-      <c r="BJ45" s="30"/>
-      <c r="BK45" s="30"/>
-      <c r="BL45" s="30"/>
-      <c r="BM45" s="30"/>
-      <c r="BN45" s="30"/>
-      <c r="BO45" s="30"/>
+      <c r="B45" s="28"/>
+      <c r="G45" s="29"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="17"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="17"/>
+      <c r="BE45" s="17"/>
+      <c r="BF45" s="17"/>
+      <c r="BG45" s="17"/>
+      <c r="BH45" s="17"/>
+      <c r="BI45" s="17"/>
+      <c r="BJ45" s="17"/>
+      <c r="BK45" s="17"/>
+      <c r="BL45" s="17"/>
+      <c r="BM45" s="17"/>
+      <c r="BN45" s="17"/>
+      <c r="BO45" s="17"/>
     </row>
     <row r="46" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="B46" s="28"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="B47" s="28"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
-      <c r="G48" s="44"/>
+      <c r="B48" s="28"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="43"/>
-      <c r="G49" s="44"/>
+      <c r="B49" s="28"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43"/>
-      <c r="G50" s="44"/>
+      <c r="B50" s="28"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="43"/>
-      <c r="G51" s="44"/>
+      <c r="B51" s="28"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="43"/>
-      <c r="G52" s="44"/>
+      <c r="B52" s="28"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="43"/>
-      <c r="G53" s="44"/>
+      <c r="B53" s="28"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="43"/>
-      <c r="G54" s="44"/>
+      <c r="B54" s="28"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="43"/>
-      <c r="G55" s="44"/>
+      <c r="B55" s="28"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="B56" s="28"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="B57" s="28"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="B58" s="28"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="43"/>
-      <c r="G59" s="44"/>
+      <c r="B59" s="28"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="B60" s="28"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="43"/>
-      <c r="G61" s="44"/>
+      <c r="B61" s="28"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="B62" s="28"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="43"/>
-      <c r="G63" s="44"/>
+      <c r="B63" s="28"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="43"/>
-      <c r="G64" s="44"/>
+      <c r="B64" s="28"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="43"/>
-      <c r="G65" s="44"/>
+      <c r="B65" s="28"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="43"/>
-      <c r="G66" s="44"/>
+      <c r="B66" s="28"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="43"/>
-      <c r="G67" s="44"/>
+      <c r="B67" s="28"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="43"/>
-      <c r="G68" s="44"/>
+      <c r="B68" s="28"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="43"/>
-      <c r="G69" s="44"/>
+      <c r="B69" s="28"/>
+      <c r="G69" s="29"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="43"/>
-      <c r="G70" s="44"/>
+      <c r="B70" s="28"/>
+      <c r="G70" s="29"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="43"/>
-      <c r="G71" s="44"/>
+      <c r="B71" s="28"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="43"/>
-      <c r="G72" s="44"/>
+      <c r="B72" s="28"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="43"/>
-      <c r="G73" s="44"/>
+      <c r="B73" s="28"/>
+      <c r="G73" s="29"/>
     </row>
     <row r="74" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="43"/>
-      <c r="G74" s="44"/>
+      <c r="B74" s="28"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="43"/>
-      <c r="G75" s="44"/>
+      <c r="B75" s="28"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="43"/>
-      <c r="G76" s="44"/>
+      <c r="B76" s="28"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="43"/>
-      <c r="G77" s="44"/>
+      <c r="B77" s="28"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="43"/>
-      <c r="G78" s="44"/>
+      <c r="B78" s="28"/>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="43"/>
-      <c r="G79" s="44"/>
+      <c r="B79" s="28"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="43"/>
-      <c r="G80" s="44"/>
+      <c r="B80" s="28"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="43"/>
-      <c r="G81" s="44"/>
+      <c r="B81" s="28"/>
+      <c r="G81" s="29"/>
     </row>
     <row r="82" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="43"/>
-      <c r="G82" s="44"/>
+      <c r="B82" s="28"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
-      <c r="G83" s="44"/>
+      <c r="B83" s="28"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="43"/>
-      <c r="G84" s="44"/>
+      <c r="B84" s="28"/>
+      <c r="G84" s="29"/>
     </row>
     <row r="85" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="43"/>
-      <c r="G85" s="44"/>
+      <c r="B85" s="28"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="43"/>
-      <c r="G86" s="44"/>
+      <c r="B86" s="28"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="43"/>
-      <c r="G87" s="44"/>
+      <c r="B87" s="28"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="43"/>
-      <c r="G88" s="44"/>
+      <c r="B88" s="28"/>
+      <c r="G88" s="29"/>
     </row>
     <row r="89" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="43"/>
-      <c r="G89" s="44"/>
+      <c r="B89" s="28"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="43"/>
-      <c r="G90" s="44"/>
+      <c r="B90" s="28"/>
+      <c r="G90" s="29"/>
     </row>
     <row r="91" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="43"/>
-      <c r="G91" s="44"/>
+      <c r="B91" s="28"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="43"/>
-      <c r="G92" s="44"/>
+      <c r="B92" s="28"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="43"/>
-      <c r="G93" s="44"/>
+      <c r="B93" s="28"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="43"/>
-      <c r="G94" s="44"/>
+      <c r="B94" s="28"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="43"/>
-      <c r="G95" s="44"/>
+      <c r="B95" s="28"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="43"/>
-      <c r="G96" s="44"/>
+      <c r="B96" s="28"/>
+      <c r="G96" s="29"/>
     </row>
     <row r="97" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="43"/>
-      <c r="G97" s="44"/>
+      <c r="B97" s="28"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="43"/>
-      <c r="G98" s="44"/>
+      <c r="B98" s="28"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="43"/>
-      <c r="G99" s="44"/>
+      <c r="B99" s="28"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="43"/>
-      <c r="G100" s="44"/>
+      <c r="B100" s="28"/>
+      <c r="G100" s="29"/>
     </row>
     <row r="101" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="43"/>
-      <c r="G101" s="44"/>
+      <c r="B101" s="28"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="43"/>
-      <c r="G102" s="44"/>
+      <c r="B102" s="28"/>
+      <c r="G102" s="29"/>
     </row>
     <row r="103" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="43"/>
-      <c r="G103" s="44"/>
+      <c r="B103" s="28"/>
+      <c r="G103" s="29"/>
     </row>
     <row r="104" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="43"/>
-      <c r="G104" s="44"/>
+      <c r="B104" s="28"/>
+      <c r="G104" s="29"/>
     </row>
     <row r="105" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="43"/>
-      <c r="G105" s="44"/>
+      <c r="B105" s="28"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="106" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="43"/>
-      <c r="G106" s="44"/>
+      <c r="B106" s="28"/>
+      <c r="G106" s="29"/>
     </row>
     <row r="107" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="43"/>
-      <c r="G107" s="44"/>
+      <c r="B107" s="28"/>
+      <c r="G107" s="29"/>
     </row>
     <row r="108" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="43"/>
-      <c r="G108" s="44"/>
+      <c r="B108" s="28"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
-      <c r="G109" s="44"/>
+      <c r="B109" s="28"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="43"/>
-      <c r="G110" s="44"/>
+      <c r="B110" s="28"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="43"/>
-      <c r="G111" s="44"/>
+      <c r="B111" s="28"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="43"/>
-      <c r="G112" s="44"/>
+      <c r="B112" s="28"/>
+      <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="43"/>
-      <c r="G113" s="44"/>
+      <c r="B113" s="28"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="43"/>
-      <c r="G114" s="44"/>
+      <c r="B114" s="28"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="43"/>
-      <c r="G115" s="44"/>
+      <c r="B115" s="28"/>
+      <c r="G115" s="29"/>
     </row>
     <row r="116" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="43"/>
-      <c r="G116" s="44"/>
+      <c r="B116" s="28"/>
+      <c r="G116" s="29"/>
     </row>
     <row r="117" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="43"/>
-      <c r="G117" s="44"/>
+      <c r="B117" s="28"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="43"/>
-      <c r="G118" s="44"/>
+      <c r="B118" s="28"/>
+      <c r="G118" s="29"/>
     </row>
     <row r="119" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="43"/>
-      <c r="G119" s="44"/>
+      <c r="B119" s="28"/>
+      <c r="G119" s="29"/>
     </row>
     <row r="120" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="43"/>
-      <c r="G120" s="44"/>
+      <c r="B120" s="28"/>
+      <c r="G120" s="29"/>
     </row>
     <row r="121" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="43"/>
-      <c r="G121" s="44"/>
+      <c r="B121" s="28"/>
+      <c r="G121" s="29"/>
     </row>
     <row r="122" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="43"/>
-      <c r="G122" s="44"/>
+      <c r="B122" s="28"/>
+      <c r="G122" s="29"/>
     </row>
     <row r="123" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="43"/>
-      <c r="G123" s="44"/>
+      <c r="B123" s="28"/>
+      <c r="G123" s="29"/>
     </row>
     <row r="124" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="43"/>
-      <c r="G124" s="44"/>
+      <c r="B124" s="28"/>
+      <c r="G124" s="29"/>
     </row>
     <row r="125" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="43"/>
-      <c r="G125" s="44"/>
+      <c r="B125" s="28"/>
+      <c r="G125" s="29"/>
     </row>
     <row r="126" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="43"/>
-      <c r="G126" s="44"/>
+      <c r="B126" s="28"/>
+      <c r="G126" s="29"/>
     </row>
     <row r="127" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="43"/>
-      <c r="G127" s="44"/>
+      <c r="B127" s="28"/>
+      <c r="G127" s="29"/>
     </row>
     <row r="128" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="43"/>
-      <c r="G128" s="44"/>
+      <c r="B128" s="28"/>
+      <c r="G128" s="29"/>
     </row>
     <row r="129" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="43"/>
-      <c r="G129" s="44"/>
+      <c r="B129" s="28"/>
+      <c r="G129" s="29"/>
     </row>
     <row r="130" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="43"/>
-      <c r="G130" s="44"/>
+      <c r="B130" s="28"/>
+      <c r="G130" s="29"/>
     </row>
     <row r="131" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="43"/>
-      <c r="G131" s="44"/>
+      <c r="B131" s="28"/>
+      <c r="G131" s="29"/>
     </row>
     <row r="132" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="43"/>
-      <c r="G132" s="44"/>
+      <c r="B132" s="28"/>
+      <c r="G132" s="29"/>
     </row>
     <row r="133" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="43"/>
-      <c r="G133" s="44"/>
+      <c r="B133" s="28"/>
+      <c r="G133" s="29"/>
     </row>
     <row r="134" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="43"/>
-      <c r="G134" s="44"/>
+      <c r="B134" s="28"/>
+      <c r="G134" s="29"/>
     </row>
     <row r="135" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="43"/>
-      <c r="G135" s="44"/>
+      <c r="B135" s="28"/>
+      <c r="G135" s="29"/>
     </row>
     <row r="136" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="43"/>
-      <c r="G136" s="44"/>
+      <c r="B136" s="28"/>
+      <c r="G136" s="29"/>
     </row>
     <row r="137" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="43"/>
-      <c r="G137" s="44"/>
+      <c r="B137" s="28"/>
+      <c r="G137" s="29"/>
     </row>
     <row r="138" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="43"/>
-      <c r="G138" s="44"/>
+      <c r="B138" s="28"/>
+      <c r="G138" s="29"/>
     </row>
     <row r="139" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="43"/>
-      <c r="G139" s="44"/>
+      <c r="B139" s="28"/>
+      <c r="G139" s="29"/>
     </row>
     <row r="140" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="43"/>
-      <c r="G140" s="44"/>
+      <c r="B140" s="28"/>
+      <c r="G140" s="29"/>
     </row>
     <row r="141" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="43"/>
-      <c r="G141" s="44"/>
+      <c r="B141" s="28"/>
+      <c r="G141" s="29"/>
     </row>
     <row r="142" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="43"/>
-      <c r="G142" s="44"/>
+      <c r="B142" s="28"/>
+      <c r="G142" s="29"/>
     </row>
     <row r="143" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="43"/>
-      <c r="G143" s="44"/>
+      <c r="B143" s="28"/>
+      <c r="G143" s="29"/>
     </row>
     <row r="144" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="43"/>
-      <c r="G144" s="44"/>
+      <c r="B144" s="28"/>
+      <c r="G144" s="29"/>
     </row>
     <row r="145" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="43"/>
-      <c r="G145" s="44"/>
+      <c r="B145" s="28"/>
+      <c r="G145" s="29"/>
     </row>
     <row r="146" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="43"/>
-      <c r="G146" s="44"/>
+      <c r="B146" s="28"/>
+      <c r="G146" s="29"/>
     </row>
     <row r="147" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="43"/>
-      <c r="G147" s="44"/>
+      <c r="B147" s="28"/>
+      <c r="G147" s="29"/>
     </row>
     <row r="148" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="43"/>
-      <c r="G148" s="44"/>
+      <c r="B148" s="28"/>
+      <c r="G148" s="29"/>
     </row>
     <row r="149" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="43"/>
-      <c r="G149" s="44"/>
+      <c r="B149" s="28"/>
+      <c r="G149" s="29"/>
     </row>
     <row r="150" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="43"/>
-      <c r="G150" s="44"/>
+      <c r="B150" s="28"/>
+      <c r="G150" s="29"/>
     </row>
     <row r="151" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="43"/>
-      <c r="G151" s="44"/>
+      <c r="B151" s="28"/>
+      <c r="G151" s="29"/>
     </row>
     <row r="152" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="43"/>
-      <c r="G152" s="44"/>
+      <c r="B152" s="28"/>
+      <c r="G152" s="29"/>
     </row>
     <row r="153" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="43"/>
-      <c r="G153" s="44"/>
+      <c r="B153" s="28"/>
+      <c r="G153" s="29"/>
     </row>
     <row r="154" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="43"/>
-      <c r="G154" s="44"/>
+      <c r="B154" s="28"/>
+      <c r="G154" s="29"/>
     </row>
     <row r="155" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="43"/>
-      <c r="G155" s="44"/>
+      <c r="B155" s="28"/>
+      <c r="G155" s="29"/>
     </row>
     <row r="156" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="43"/>
-      <c r="G156" s="44"/>
+      <c r="B156" s="28"/>
+      <c r="G156" s="29"/>
     </row>
     <row r="157" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="43"/>
-      <c r="G157" s="44"/>
+      <c r="B157" s="28"/>
+      <c r="G157" s="29"/>
     </row>
     <row r="158" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="43"/>
-      <c r="G158" s="44"/>
+      <c r="B158" s="28"/>
+      <c r="G158" s="29"/>
     </row>
     <row r="159" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="43"/>
-      <c r="G159" s="44"/>
+      <c r="B159" s="28"/>
+      <c r="G159" s="29"/>
     </row>
     <row r="160" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="43"/>
-      <c r="G160" s="44"/>
+      <c r="B160" s="28"/>
+      <c r="G160" s="29"/>
     </row>
     <row r="161" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="43"/>
-      <c r="G161" s="44"/>
+      <c r="B161" s="28"/>
+      <c r="G161" s="29"/>
     </row>
     <row r="162" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="43"/>
-      <c r="G162" s="44"/>
+      <c r="B162" s="28"/>
+      <c r="G162" s="29"/>
     </row>
     <row r="163" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="43"/>
-      <c r="G163" s="44"/>
+      <c r="B163" s="28"/>
+      <c r="G163" s="29"/>
     </row>
     <row r="164" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="43"/>
-      <c r="G164" s="44"/>
+      <c r="B164" s="28"/>
+      <c r="G164" s="29"/>
     </row>
     <row r="165" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="43"/>
-      <c r="G165" s="44"/>
+      <c r="B165" s="28"/>
+      <c r="G165" s="29"/>
     </row>
     <row r="166" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="43"/>
-      <c r="G166" s="44"/>
+      <c r="B166" s="28"/>
+      <c r="G166" s="29"/>
     </row>
     <row r="167" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="43"/>
-      <c r="G167" s="44"/>
+      <c r="B167" s="28"/>
+      <c r="G167" s="29"/>
     </row>
     <row r="168" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="43"/>
-      <c r="G168" s="44"/>
+      <c r="B168" s="28"/>
+      <c r="G168" s="29"/>
     </row>
     <row r="169" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="43"/>
-      <c r="G169" s="44"/>
+      <c r="B169" s="28"/>
+      <c r="G169" s="29"/>
     </row>
     <row r="170" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="43"/>
-      <c r="G170" s="44"/>
+      <c r="B170" s="28"/>
+      <c r="G170" s="29"/>
     </row>
     <row r="171" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="43"/>
-      <c r="G171" s="44"/>
+      <c r="B171" s="28"/>
+      <c r="G171" s="29"/>
     </row>
     <row r="172" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="43"/>
-      <c r="G172" s="44"/>
+      <c r="B172" s="28"/>
+      <c r="G172" s="29"/>
     </row>
     <row r="173" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="43"/>
-      <c r="G173" s="44"/>
+      <c r="B173" s="28"/>
+      <c r="G173" s="29"/>
     </row>
     <row r="174" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="43"/>
-      <c r="G174" s="44"/>
+      <c r="B174" s="28"/>
+      <c r="G174" s="29"/>
     </row>
     <row r="175" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="43"/>
-      <c r="G175" s="44"/>
+      <c r="B175" s="28"/>
+      <c r="G175" s="29"/>
     </row>
     <row r="176" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="43"/>
-      <c r="G176" s="44"/>
+      <c r="B176" s="28"/>
+      <c r="G176" s="29"/>
     </row>
     <row r="177" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="43"/>
-      <c r="G177" s="44"/>
+      <c r="B177" s="28"/>
+      <c r="G177" s="29"/>
     </row>
     <row r="178" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="43"/>
-      <c r="G178" s="44"/>
+      <c r="B178" s="28"/>
+      <c r="G178" s="29"/>
     </row>
     <row r="179" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="43"/>
-      <c r="G179" s="44"/>
+      <c r="B179" s="28"/>
+      <c r="G179" s="29"/>
     </row>
     <row r="180" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="43"/>
-      <c r="G180" s="44"/>
+      <c r="B180" s="28"/>
+      <c r="G180" s="29"/>
     </row>
     <row r="181" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="43"/>
-      <c r="G181" s="44"/>
+      <c r="B181" s="28"/>
+      <c r="G181" s="29"/>
     </row>
     <row r="182" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="43"/>
-      <c r="G182" s="44"/>
+      <c r="B182" s="28"/>
+      <c r="G182" s="29"/>
     </row>
     <row r="183" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="43"/>
-      <c r="G183" s="44"/>
+      <c r="B183" s="28"/>
+      <c r="G183" s="29"/>
     </row>
     <row r="184" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="43"/>
-      <c r="G184" s="44"/>
+      <c r="B184" s="28"/>
+      <c r="G184" s="29"/>
     </row>
     <row r="185" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="43"/>
-      <c r="G185" s="44"/>
+      <c r="B185" s="28"/>
+      <c r="G185" s="29"/>
     </row>
     <row r="186" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="43"/>
-      <c r="G186" s="44"/>
+      <c r="B186" s="28"/>
+      <c r="G186" s="29"/>
     </row>
     <row r="187" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="43"/>
-      <c r="G187" s="44"/>
+      <c r="B187" s="28"/>
+      <c r="G187" s="29"/>
     </row>
     <row r="188" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="43"/>
-      <c r="G188" s="44"/>
+      <c r="B188" s="28"/>
+      <c r="G188" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4105,24 +4105,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,+$A$2:$H$2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
